--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2920574.314209193</v>
+        <v>2920574.314209194</v>
       </c>
       <c r="C2">
         <v>3853640.532441906</v>
       </c>
       <c r="D2">
-        <v>5981222.51440034</v>
+        <v>5981222.514400337</v>
       </c>
       <c r="E2">
-        <v>7531281.417480717</v>
+        <v>7531281.417480712</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1214293.70416934</v>
+        <v>1214293.704169339</v>
       </c>
       <c r="C3">
-        <v>1613868.74514992</v>
+        <v>1613868.745149921</v>
       </c>
       <c r="D3">
         <v>2503979.233498171</v>
       </c>
       <c r="E3">
-        <v>3230585.075251778</v>
+        <v>3230585.075251777</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>215438.1857389292</v>
       </c>
       <c r="C4">
-        <v>359006.4350101664</v>
+        <v>359006.4350101666</v>
       </c>
       <c r="D4">
-        <v>717863.7378731902</v>
+        <v>717863.7378731898</v>
       </c>
       <c r="E4">
-        <v>1199505.963379161</v>
+        <v>1199505.96337916</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>301613.4600345008</v>
+        <v>301613.4600345009</v>
       </c>
       <c r="C5">
-        <v>403882.2393864372</v>
+        <v>403882.2393864375</v>
       </c>
       <c r="D5">
-        <v>675636.4591747673</v>
+        <v>675636.4591747669</v>
       </c>
       <c r="E5">
-        <v>820714.6065225838</v>
+        <v>820714.6065225831</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>315976.0057504294</v>
+        <v>315976.0057504295</v>
       </c>
       <c r="C6">
-        <v>403882.2393864372</v>
+        <v>403882.2393864375</v>
       </c>
       <c r="D6">
-        <v>675636.4591747673</v>
+        <v>675636.4591747669</v>
       </c>
       <c r="E6">
-        <v>757582.7137131542</v>
+        <v>757582.7137131536</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,13 +476,13 @@
         <v>1192151.651162758</v>
       </c>
       <c r="C7">
-        <v>1572051.530840322</v>
+        <v>1572051.530840323</v>
       </c>
       <c r="D7">
-        <v>2438588.328624258</v>
+        <v>2438588.328624257</v>
       </c>
       <c r="E7">
-        <v>3149174.823020255</v>
+        <v>3149174.823020254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>999303.5899452529</v>
+        <v>999303.5899452528</v>
       </c>
       <c r="C8">
-        <v>1493448.954298306</v>
+        <v>1493448.954298307</v>
       </c>
       <c r="D8">
-        <v>2576621.630244499</v>
+        <v>2576621.630244498</v>
       </c>
       <c r="E8">
         <v>3685204.580130085</v>
@@ -510,13 +510,13 @@
         <v>981190.8925484471</v>
       </c>
       <c r="C9">
-        <v>1454978.400316996</v>
+        <v>1454978.400316995</v>
       </c>
       <c r="D9">
         <v>2508392.249264547</v>
       </c>
       <c r="E9">
-        <v>3589199.395098735</v>
+        <v>3589199.395098731</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>911645.3803009324</v>
+        <v>911645.3803009323</v>
       </c>
       <c r="C10">
-        <v>1414846.37775629</v>
+        <v>1414846.377756291</v>
       </c>
       <c r="D10">
         <v>2622632.730784579</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>999303.5899452529</v>
+        <v>999303.5899452528</v>
       </c>
       <c r="C11">
-        <v>1493448.954298306</v>
+        <v>1493448.954298307</v>
       </c>
       <c r="D11">
-        <v>2576621.630244499</v>
+        <v>2576621.630244498</v>
       </c>
       <c r="E11">
         <v>3685204.580130085</v>
@@ -561,13 +561,13 @@
         <v>215438.1857389292</v>
       </c>
       <c r="C12">
-        <v>359006.4350101664</v>
+        <v>359006.4350101666</v>
       </c>
       <c r="D12">
-        <v>717863.7378731902</v>
+        <v>717863.7378731898</v>
       </c>
       <c r="E12">
-        <v>1199505.963379161</v>
+        <v>1199505.96337916</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>928577.5384824361</v>
+        <v>928577.5384824359</v>
       </c>
       <c r="C13">
-        <v>1452481.870634928</v>
+        <v>1452481.870634929</v>
       </c>
       <c r="D13">
         <v>2692958.798290486</v>
@@ -595,13 +595,13 @@
         <v>215438.1857389292</v>
       </c>
       <c r="C14">
-        <v>359006.4350101664</v>
+        <v>359006.4350101666</v>
       </c>
       <c r="D14">
-        <v>717863.7378731902</v>
+        <v>717863.7378731898</v>
       </c>
       <c r="E14">
-        <v>1199505.963379161</v>
+        <v>1199505.96337916</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>999303.5899452529</v>
+        <v>999303.5899452528</v>
       </c>
       <c r="C15">
-        <v>1493448.954298306</v>
+        <v>1493448.954298307</v>
       </c>
       <c r="D15">
-        <v>2576621.630244499</v>
+        <v>2576621.630244498</v>
       </c>
       <c r="E15">
         <v>3685204.580130085</v>
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2415388.732517951</v>
+        <v>2415388.73251795</v>
       </c>
       <c r="C16">
-        <v>3596327.428997863</v>
+        <v>3596327.42899786</v>
       </c>
       <c r="D16">
-        <v>6128105.855856315</v>
+        <v>6128105.855856314</v>
       </c>
       <c r="E16">
-        <v>8679199.169827297</v>
+        <v>8679199.169827299</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>215438.1857389292</v>
       </c>
       <c r="C17">
-        <v>359006.4350101664</v>
+        <v>359006.4350101666</v>
       </c>
       <c r="D17">
-        <v>717863.7378731902</v>
+        <v>717863.7378731898</v>
       </c>
       <c r="E17">
-        <v>1199505.963379161</v>
+        <v>1199505.96337916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,7 +663,7 @@
         <v>1017863.840259593</v>
       </c>
       <c r="C18">
-        <v>1533175.307892424</v>
+        <v>1533175.307892425</v>
       </c>
       <c r="D18">
         <v>2645713.907092408</v>
@@ -677,16 +677,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2415388.732517951</v>
+        <v>2415388.73251795</v>
       </c>
       <c r="C19">
-        <v>3596327.428997863</v>
+        <v>3596327.42899786</v>
       </c>
       <c r="D19">
-        <v>6128105.855856315</v>
+        <v>6128105.855856314</v>
       </c>
       <c r="E19">
-        <v>8679199.169827297</v>
+        <v>8679199.169827299</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2415388.732517951</v>
+        <v>2415388.73251795</v>
       </c>
       <c r="C20">
-        <v>3596327.428997863</v>
+        <v>3596327.42899786</v>
       </c>
       <c r="D20">
-        <v>6128105.855856315</v>
+        <v>6128105.855856314</v>
       </c>
       <c r="E20">
-        <v>8679199.169827297</v>
+        <v>8679199.169827299</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2415388.732517951</v>
+        <v>2415388.73251795</v>
       </c>
       <c r="C21">
-        <v>3596327.428997863</v>
+        <v>3596327.42899786</v>
       </c>
       <c r="D21">
-        <v>6128105.855856315</v>
+        <v>6128105.855856314</v>
       </c>
       <c r="E21">
-        <v>8679199.169827297</v>
+        <v>8679199.169827299</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>566984.249697424</v>
+        <v>566984.2496974241</v>
       </c>
       <c r="C22">
-        <v>753458.5281593552</v>
+        <v>753458.5281593553</v>
       </c>
       <c r="D22">
-        <v>1115308.876446425</v>
+        <v>1115308.876446426</v>
       </c>
       <c r="E22">
-        <v>1427948.129425141</v>
+        <v>1427948.12942514</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2463134.963790886</v>
+        <v>2463134.963790887</v>
       </c>
       <c r="C23">
         <v>3696349.082138155</v>
       </c>
       <c r="D23">
-        <v>6300829.824330129</v>
+        <v>6300829.824330126</v>
       </c>
       <c r="E23">
-        <v>8918622.731227165</v>
+        <v>8918622.73122716</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -768,10 +768,10 @@
         <v>2108613.301768977</v>
       </c>
       <c r="D24">
-        <v>3876152.132840999</v>
+        <v>3876152.132841001</v>
       </c>
       <c r="E24">
-        <v>5065059.868328504</v>
+        <v>5065059.868328501</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,13 +782,13 @@
         <v>1718646.525560464</v>
       </c>
       <c r="C25">
-        <v>2242493.511405102</v>
+        <v>2242493.511405103</v>
       </c>
       <c r="D25">
-        <v>3666630.395930675</v>
+        <v>3666630.395930676</v>
       </c>
       <c r="E25">
-        <v>3892098.635662956</v>
+        <v>3892098.635662953</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -799,13 +799,13 @@
         <v>1718646.525560464</v>
       </c>
       <c r="C26">
-        <v>2242493.511405102</v>
+        <v>2242493.511405103</v>
       </c>
       <c r="D26">
-        <v>3666630.395930675</v>
+        <v>3666630.395930676</v>
       </c>
       <c r="E26">
-        <v>3892098.635662956</v>
+        <v>3892098.635662953</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,16 +813,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>961154.3453853884</v>
+        <v>961154.3453853888</v>
       </c>
       <c r="C27">
         <v>1309587.279960375</v>
       </c>
       <c r="D27">
-        <v>2223306.103155303</v>
+        <v>2223306.103155304</v>
       </c>
       <c r="E27">
-        <v>3150599.124766479</v>
+        <v>3150599.124766477</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -836,10 +836,10 @@
         <v>1408424.055806441</v>
       </c>
       <c r="D28">
-        <v>2092523.391204991</v>
+        <v>2092523.391204992</v>
       </c>
       <c r="E28">
-        <v>2443321.770227065</v>
+        <v>2443321.770227063</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -853,10 +853,10 @@
         <v>1408424.055806441</v>
       </c>
       <c r="D29">
-        <v>2092523.391204991</v>
+        <v>2092523.391204992</v>
       </c>
       <c r="E29">
-        <v>2443321.770227065</v>
+        <v>2443321.770227063</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,16 +864,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5014938.581559461</v>
+        <v>5014938.581559462</v>
       </c>
       <c r="C30">
         <v>6709144.18615722</v>
       </c>
       <c r="D30">
-        <v>10061564.58714305</v>
+        <v>10061564.58714304</v>
       </c>
       <c r="E30">
-        <v>13439690.16190088</v>
+        <v>13439690.16190087</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -887,10 +887,10 @@
         <v>6119329.312648893</v>
       </c>
       <c r="D31">
-        <v>10400718.44963102</v>
+        <v>10400718.44963101</v>
       </c>
       <c r="E31">
-        <v>15876125.2204911</v>
+        <v>15876125.22049109</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -904,7 +904,7 @@
         <v>5424489.24101026</v>
       </c>
       <c r="D32">
-        <v>10968814.75165985</v>
+        <v>10968814.75165984</v>
       </c>
       <c r="E32">
         <v>19590015.26996119</v>
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4640259.262247547</v>
+        <v>4640259.262247548</v>
       </c>
       <c r="C33">
         <v>6377373.319808787</v>
       </c>
       <c r="D33">
-        <v>10174615.87463904</v>
+        <v>10174615.87463903</v>
       </c>
       <c r="E33">
-        <v>14697205.03085067</v>
+        <v>14697205.03085066</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -932,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2989800.678375399</v>
+        <v>2989800.678375401</v>
       </c>
       <c r="C34">
         <v>4722488.914461209</v>
       </c>
       <c r="D34">
-        <v>8421034.497427471</v>
+        <v>8421034.497427467</v>
       </c>
       <c r="E34">
-        <v>13682601.81876186</v>
+        <v>13682601.81876187</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,13 +949,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>17097358.48667553</v>
+        <v>17097358.48667554</v>
       </c>
       <c r="C35">
         <v>23138332.29943681</v>
       </c>
       <c r="D35">
-        <v>38400857.64683269</v>
+        <v>38400857.64683268</v>
       </c>
       <c r="E35">
         <v>59342854.82613456</v>
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3208495.982540551</v>
+        <v>3208495.98254055</v>
       </c>
       <c r="C36">
-        <v>4825730.27564073</v>
+        <v>4825730.275640732</v>
       </c>
       <c r="D36">
-        <v>8242049.069928824</v>
+        <v>8242049.069928823</v>
       </c>
       <c r="E36">
-        <v>12307436.95356585</v>
+        <v>12307436.95356586</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>3396919.65563528</v>
       </c>
       <c r="C37">
-        <v>4325122.779553514</v>
+        <v>4325122.779553515</v>
       </c>
       <c r="D37">
-        <v>6208817.976432351</v>
+        <v>6208817.976432353</v>
       </c>
       <c r="E37">
-        <v>8121227.226414365</v>
+        <v>8121227.226414364</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>2333536.111262497</v>
       </c>
       <c r="C38">
-        <v>3460098.223642811</v>
+        <v>3460098.223642812</v>
       </c>
       <c r="D38">
-        <v>6664511.0389228</v>
+        <v>6664511.038922802</v>
       </c>
       <c r="E38">
         <v>11511642.47627667</v>
@@ -1020,10 +1020,10 @@
         <v>4864657.184517113</v>
       </c>
       <c r="C39">
-        <v>5587576.828325583</v>
+        <v>5587576.828325586</v>
       </c>
       <c r="D39">
-        <v>7411784.256374493</v>
+        <v>7411784.256374499</v>
       </c>
       <c r="E39">
         <v>8847359.145675112</v>
@@ -1051,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>26509718.72573197</v>
+        <v>26509718.72573198</v>
       </c>
       <c r="C41">
         <v>27147233.56412266</v>
@@ -1071,13 +1071,13 @@
         <v>2157306.95448576</v>
       </c>
       <c r="C42">
-        <v>3527042.7957355</v>
+        <v>3527042.795735501</v>
       </c>
       <c r="D42">
-        <v>6732800.545305949</v>
+        <v>6732800.54530595</v>
       </c>
       <c r="E42">
-        <v>11367237.73421563</v>
+        <v>11367237.73421564</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>3753395.64127436</v>
       </c>
       <c r="D43">
-        <v>6714399.4515466</v>
+        <v>6714399.451546606</v>
       </c>
       <c r="E43">
-        <v>10778577.27641006</v>
+        <v>10778577.27641007</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8244143.598319245</v>
+        <v>8244143.598319246</v>
       </c>
       <c r="C44">
-        <v>10014263.14759972</v>
+        <v>10014263.14759973</v>
       </c>
       <c r="D44">
         <v>14448695.76476914</v>
@@ -1122,13 +1122,13 @@
         <v>1236331.998044455</v>
       </c>
       <c r="C45">
-        <v>1805651.259922228</v>
+        <v>1805651.259922227</v>
       </c>
       <c r="D45">
         <v>3209990.458571625</v>
       </c>
       <c r="E45">
-        <v>4894592.138981008</v>
+        <v>4894592.138981006</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2668026.771017736</v>
+        <v>2668026.771017737</v>
       </c>
       <c r="C46">
-        <v>3919320.87995943</v>
+        <v>3919320.879959431</v>
       </c>
       <c r="D46">
-        <v>6746151.089665907</v>
+        <v>6746151.089665909</v>
       </c>
       <c r="E46">
-        <v>10506882.31829914</v>
+        <v>10506882.31829913</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4550099.372000556</v>
+        <v>4550099.372000555</v>
       </c>
       <c r="C47">
-        <v>5375145.670262115</v>
+        <v>5375145.670262119</v>
       </c>
       <c r="D47">
         <v>7716258.050738689</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1749041.421356669</v>
+        <v>1749041.42135667</v>
       </c>
       <c r="C48">
         <v>2114292.558180517</v>
       </c>
       <c r="D48">
-        <v>3015724.667940673</v>
+        <v>3015724.667940672</v>
       </c>
       <c r="E48">
-        <v>3683531.213993357</v>
+        <v>3683531.213993355</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>15570625.49352532</v>
       </c>
       <c r="C49">
-        <v>23339402.60449304</v>
+        <v>23339402.60449305</v>
       </c>
       <c r="D49">
-        <v>36252089.08087485</v>
+        <v>36252089.08087488</v>
       </c>
       <c r="E49">
         <v>49139086.38816888</v>
@@ -1204,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5007154.760849797</v>
+        <v>5007154.760849796</v>
       </c>
       <c r="C50">
         <v>7434556.688147866</v>
@@ -1224,13 +1224,13 @@
         <v>2091702.298900684</v>
       </c>
       <c r="C51">
-        <v>3004447.037742367</v>
+        <v>3004447.037742368</v>
       </c>
       <c r="D51">
         <v>4809546.824599941</v>
       </c>
       <c r="E51">
-        <v>6293297.234984628</v>
+        <v>6293297.234984625</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>1857210.334583838</v>
       </c>
       <c r="C52">
-        <v>2841220.524040802</v>
+        <v>2841220.524040801</v>
       </c>
       <c r="D52">
-        <v>4834192.482819823</v>
+        <v>4834192.482819824</v>
       </c>
       <c r="E52">
-        <v>6865650.429081688</v>
+        <v>6865650.42908169</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1258,13 +1258,13 @@
         <v>1898856.424611885</v>
       </c>
       <c r="C53">
-        <v>3011741.149334181</v>
+        <v>3011741.149334182</v>
       </c>
       <c r="D53">
-        <v>5478359.8092326</v>
+        <v>5478359.809232601</v>
       </c>
       <c r="E53">
-        <v>8306842.730193441</v>
+        <v>8306842.730193443</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1272,16 +1272,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1605636.484504492</v>
+        <v>1605636.484504493</v>
       </c>
       <c r="C54">
         <v>2541963.091481545</v>
       </c>
       <c r="D54">
-        <v>4966484.979411143</v>
+        <v>4966484.97941114</v>
       </c>
       <c r="E54">
-        <v>7954386.682238986</v>
+        <v>7954386.682238982</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7653212.154794811</v>
+        <v>7653212.15479481</v>
       </c>
       <c r="C55">
         <v>9195372.745867098</v>
       </c>
       <c r="D55">
-        <v>12359005.89028898</v>
+        <v>12359005.89028897</v>
       </c>
       <c r="E55">
         <v>14181825.62763494</v>
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6959993.210085496</v>
+        <v>6959993.210085494</v>
       </c>
       <c r="C56">
         <v>12409259.58605038</v>
       </c>
       <c r="D56">
-        <v>21579560.25854419</v>
+        <v>21579560.25854418</v>
       </c>
       <c r="E56">
-        <v>32841493.43394932</v>
+        <v>32841493.43394931</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5352090.927884392</v>
+        <v>5352090.927884393</v>
       </c>
       <c r="C57">
-        <v>8731020.223210983</v>
+        <v>8731020.223210987</v>
       </c>
       <c r="D57">
         <v>17648847.84627605</v>
       </c>
       <c r="E57">
-        <v>29224005.56242706</v>
+        <v>29224005.56242708</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>2195796.312155455</v>
       </c>
       <c r="E58">
-        <v>3149372.127949659</v>
+        <v>3149372.127949656</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>2195796.312155455</v>
       </c>
       <c r="E59">
-        <v>3149372.127949659</v>
+        <v>3149372.127949656</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>2944658.420556566</v>
       </c>
       <c r="D60">
-        <v>5228552.573333796</v>
+        <v>5228552.5733338</v>
       </c>
       <c r="E60">
-        <v>7089262.640608228</v>
+        <v>7089262.640608231</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2459001.619496828</v>
+        <v>2459001.619496829</v>
       </c>
       <c r="C61">
         <v>3084050.535139125</v>
       </c>
       <c r="D61">
-        <v>4990891.092727715</v>
+        <v>4990891.092727718</v>
       </c>
       <c r="E61">
-        <v>5916219.18209032</v>
+        <v>5916219.182090322</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>346247.5559102881</v>
+        <v>346247.5559102879</v>
       </c>
       <c r="C62">
         <v>624559.5412053384</v>
       </c>
       <c r="D62">
-        <v>1633772.575685402</v>
+        <v>1633772.575685403</v>
       </c>
       <c r="E62">
         <v>2636296.160805245</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>427038.6522893553</v>
+        <v>427038.6522893552</v>
       </c>
       <c r="C63">
         <v>689169.1489162355</v>
       </c>
       <c r="D63">
-        <v>1519121.86861976</v>
+        <v>1519121.868619761</v>
       </c>
       <c r="E63">
         <v>1977222.120603934</v>
@@ -1448,10 +1448,10 @@
         <v>777193.0565200197</v>
       </c>
       <c r="D64">
-        <v>1925690.06901202</v>
+        <v>1925690.069012019</v>
       </c>
       <c r="E64">
-        <v>2510615.360173578</v>
+        <v>2510615.360173576</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1465,10 +1465,10 @@
         <v>759326.5494735824</v>
       </c>
       <c r="D65">
-        <v>1952069.385025884</v>
+        <v>1952069.385025882</v>
       </c>
       <c r="E65">
-        <v>2774890.661244481</v>
+        <v>2774890.661244479</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>2307348.347134846</v>
       </c>
       <c r="D66">
-        <v>4162953.454541823</v>
+        <v>4162953.454541825</v>
       </c>
       <c r="E66">
-        <v>6230250.87651845</v>
+        <v>6230250.876518453</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>985802.2711308395</v>
+        <v>985802.2711308396</v>
       </c>
       <c r="C67">
         <v>1855796.290749557</v>
       </c>
       <c r="D67">
-        <v>4573521.295879922</v>
+        <v>4573521.295879926</v>
       </c>
       <c r="E67">
         <v>9054580.027195273</v>
@@ -1516,10 +1516,10 @@
         <v>2001555.192695288</v>
       </c>
       <c r="D68">
-        <v>4311630.363632603</v>
+        <v>4311630.363632604</v>
       </c>
       <c r="E68">
-        <v>7769489.328364185</v>
+        <v>7769489.328364188</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,7 +1533,7 @@
         <v>2198404.83673409</v>
       </c>
       <c r="D69">
-        <v>4319436.779442148</v>
+        <v>4319436.779442152</v>
       </c>
       <c r="E69">
         <v>7183799.029840878</v>
@@ -1547,10 +1547,10 @@
         <v>1123814.589089157</v>
       </c>
       <c r="C70">
-        <v>2027100.563741823</v>
+        <v>2027100.563741824</v>
       </c>
       <c r="D70">
-        <v>4522704.392592368</v>
+        <v>4522704.392592371</v>
       </c>
       <c r="E70">
         <v>8156605.148465164</v>
@@ -1564,7 +1564,7 @@
         <v>6033900.234537147</v>
       </c>
       <c r="C71">
-        <v>7822171.25923497</v>
+        <v>7822171.259234969</v>
       </c>
       <c r="D71">
         <v>12711275.84093338</v>
@@ -1584,7 +1584,7 @@
         <v>2455361.24622249</v>
       </c>
       <c r="D72">
-        <v>4166986.069579485</v>
+        <v>4166986.069579488</v>
       </c>
       <c r="E72">
         <v>5762005.471851538</v>
@@ -1598,10 +1598,10 @@
         <v>1813876.178880745</v>
       </c>
       <c r="C73">
-        <v>2426810.534057112</v>
+        <v>2426810.534057113</v>
       </c>
       <c r="D73">
-        <v>4116169.16629193</v>
+        <v>4116169.166291933</v>
       </c>
       <c r="E73">
         <v>5612342.992063186</v>
@@ -1615,10 +1615,10 @@
         <v>1892740.360571212</v>
       </c>
       <c r="C74">
-        <v>2598114.807049379</v>
+        <v>2598114.80704938</v>
       </c>
       <c r="D74">
-        <v>4065352.263004375</v>
+        <v>4065352.263004378</v>
       </c>
       <c r="E74">
         <v>5013693.07290978</v>
@@ -1638,7 +1638,7 @@
         <v>4129275.492601795</v>
       </c>
       <c r="E75">
-        <v>4681147.756373052</v>
+        <v>4681147.756373056</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1652,7 +1652,7 @@
         <v>2369709.109726357</v>
       </c>
       <c r="D76">
-        <v>4268619.876154594</v>
+        <v>4268619.876154597</v>
       </c>
       <c r="E76">
         <v>6360655.391004944</v>
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3625818.588231246</v>
+        <v>3625818.588231245</v>
       </c>
       <c r="C77">
         <v>5132405.675980504</v>
       </c>
       <c r="D77">
-        <v>9063641.210381698</v>
+        <v>9063641.210381702</v>
       </c>
       <c r="E77">
         <v>13124167.13852421</v>
@@ -1680,16 +1680,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2410982.463308406</v>
+        <v>2410982.463308405</v>
       </c>
       <c r="C78">
         <v>4859405.374066647</v>
       </c>
       <c r="D78">
-        <v>9960045.286133735</v>
+        <v>9960045.286133738</v>
       </c>
       <c r="E78">
-        <v>16312524.12697924</v>
+        <v>16312524.12697925</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4485548.768945872</v>
+        <v>4485548.768945869</v>
       </c>
       <c r="C79">
         <v>5432706.008085746</v>
       </c>
       <c r="D79">
-        <v>8466038.493213674</v>
+        <v>8466038.493213678</v>
       </c>
       <c r="E79">
         <v>10454845.00865488</v>
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>4223891.75742403</v>
+        <v>4223891.757424027</v>
       </c>
       <c r="C80">
         <v>5296205.857128819</v>
       </c>
       <c r="D80">
-        <v>8665239.398936348</v>
+        <v>8665239.398936352</v>
       </c>
       <c r="E80">
         <v>11270471.21500384</v>
@@ -1731,16 +1731,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>953409.7747756899</v>
+        <v>953409.7747756895</v>
       </c>
       <c r="C81">
         <v>1214981.092299888</v>
       </c>
       <c r="D81">
-        <v>1940268.147119439</v>
+        <v>1940268.147119438</v>
       </c>
       <c r="E81">
-        <v>2763761.843587959</v>
+        <v>2763761.843587961</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1065575.630631654</v>
+        <v>1065575.630631653</v>
       </c>
       <c r="C82">
         <v>1362251.527730178</v>
@@ -1757,7 +1757,7 @@
         <v>1883201.436910043</v>
       </c>
       <c r="E82">
-        <v>2211009.474870367</v>
+        <v>2211009.474870368</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,10 +1768,10 @@
         <v>2176112.834713697</v>
       </c>
       <c r="C83">
-        <v>3648346.793771371</v>
+        <v>3648346.793771369</v>
       </c>
       <c r="D83">
-        <v>7638722.348389463</v>
+        <v>7638722.348389461</v>
       </c>
       <c r="E83">
         <v>13025204.93660032</v>
@@ -1785,13 +1785,13 @@
         <v>3735374.787146347</v>
       </c>
       <c r="C84">
-        <v>4445667.616251207</v>
+        <v>4445667.616251204</v>
       </c>
       <c r="D84">
-        <v>6667324.130675196</v>
+        <v>6667324.130675194</v>
       </c>
       <c r="E84">
-        <v>7509429.376713448</v>
+        <v>7509429.376713452</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,10 +1802,10 @@
         <v>2451757.332276883</v>
       </c>
       <c r="C85">
-        <v>2845641.462519526</v>
+        <v>2845641.462519525</v>
       </c>
       <c r="D85">
-        <v>4056914.372636884</v>
+        <v>4056914.37263688</v>
       </c>
       <c r="E85">
         <v>4876722.510068703</v>
@@ -1819,10 +1819,10 @@
         <v>2505642.108810441</v>
       </c>
       <c r="C86">
-        <v>2952353.017364008</v>
+        <v>2952353.017364007</v>
       </c>
       <c r="D86">
-        <v>4001340.203148707</v>
+        <v>4001340.203148704</v>
       </c>
       <c r="E86">
         <v>4567089.334826245</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>748369.1259892733</v>
+        <v>748369.1259892735</v>
       </c>
       <c r="C87">
-        <v>1014313.692866395</v>
+        <v>1014313.692866396</v>
       </c>
       <c r="D87">
         <v>1575423.603306354</v>
       </c>
       <c r="E87">
-        <v>2280543.930755073</v>
+        <v>2280543.930755072</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>696757.4621279441</v>
+        <v>696757.4621279443</v>
       </c>
       <c r="C88">
-        <v>979337.358629623</v>
+        <v>979337.3586296237</v>
       </c>
       <c r="D88">
-        <v>1631688.731995866</v>
+        <v>1631688.731995867</v>
       </c>
       <c r="E88">
-        <v>2437822.822531285</v>
+        <v>2437822.822531284</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>799980.7898506025</v>
+        <v>799980.7898506027</v>
       </c>
       <c r="C89">
-        <v>1049290.027103167</v>
+        <v>1049290.027103168</v>
       </c>
       <c r="D89">
         <v>1575423.603306354</v>
       </c>
       <c r="E89">
-        <v>2044625.593090755</v>
+        <v>2044625.593090754</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,10 +1890,10 @@
         <v>196082472.2183633</v>
       </c>
       <c r="D90">
-        <v>241127179.2878411</v>
+        <v>241127179.2878412</v>
       </c>
       <c r="E90">
-        <v>287805448.4474275</v>
+        <v>287805448.4474276</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,13 +1904,13 @@
         <v>37745121.38480134</v>
       </c>
       <c r="C91">
-        <v>50280829.19234306</v>
+        <v>50280829.19234308</v>
       </c>
       <c r="D91">
-        <v>66918682.98151161</v>
+        <v>66918682.98151163</v>
       </c>
       <c r="E91">
-        <v>86332157.89779599</v>
+        <v>86332157.89779602</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1918,16 +1918,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>33681118.63983011</v>
+        <v>33681118.6398301</v>
       </c>
       <c r="C92">
-        <v>47473270.20190766</v>
+        <v>47473270.20190768</v>
       </c>
       <c r="D92">
-        <v>69353517.6909328</v>
+        <v>69353517.69093283</v>
       </c>
       <c r="E92">
-        <v>98272719.80243078</v>
+        <v>98272719.80243082</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1935,16 +1935,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>67974621.25492986</v>
+        <v>67974621.25492984</v>
       </c>
       <c r="C93">
-        <v>90416161.12379457</v>
+        <v>90416161.1237946</v>
       </c>
       <c r="D93">
         <v>129988756.2610349</v>
       </c>
       <c r="E93">
-        <v>183088615.8710668</v>
+        <v>183088615.8710669</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1955,7 +1955,7 @@
         <v>43200079.4163406</v>
       </c>
       <c r="C94">
-        <v>71489662.22273144</v>
+        <v>71489662.22273143</v>
       </c>
       <c r="D94">
         <v>143951176.9281095</v>
@@ -1969,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>19763301.0200656</v>
+        <v>19763301.02006559</v>
       </c>
       <c r="C95">
-        <v>26288961.4558951</v>
+        <v>26288961.45589511</v>
       </c>
       <c r="D95">
         <v>35422917.86932129</v>
       </c>
       <c r="E95">
-        <v>46530284.88234668</v>
+        <v>46530284.8823467</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,16 +1986,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>6068168.482217325</v>
+        <v>6068168.482217324</v>
       </c>
       <c r="C96">
-        <v>8486485.130179731</v>
+        <v>8486485.130179733</v>
       </c>
       <c r="D96">
         <v>12645431.8779617</v>
       </c>
       <c r="E96">
-        <v>18195141.94991968</v>
+        <v>18195141.94991969</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2006,7 +2006,7 @@
         <v>6346524.834612614</v>
       </c>
       <c r="C97">
-        <v>8933142.242294453</v>
+        <v>8933142.242294457</v>
       </c>
       <c r="D97">
         <v>12802517.98824694</v>
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7202594.403348959</v>
+        <v>7202594.40334896</v>
       </c>
       <c r="C98">
         <v>11101447.380261</v>
@@ -2029,7 +2029,7 @@
         <v>17300786.12972582</v>
       </c>
       <c r="E98">
-        <v>25675067.19312917</v>
+        <v>25675067.19312919</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>3734678.579514275</v>
       </c>
       <c r="C99">
-        <v>4552840.779545243</v>
+        <v>4552840.779545241</v>
       </c>
       <c r="D99">
         <v>6055275.145404036</v>
       </c>
       <c r="E99">
-        <v>7607427.316482718</v>
+        <v>7607427.316482721</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,16 +2054,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9623439.64921956</v>
+        <v>9623439.64921955</v>
       </c>
       <c r="C100">
-        <v>11488936.19415342</v>
+        <v>11488936.19415341</v>
       </c>
       <c r="D100">
-        <v>14933729.3190312</v>
+        <v>14933729.31903121</v>
       </c>
       <c r="E100">
-        <v>18931874.22789325</v>
+        <v>18931874.22789326</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4572463.03775073</v>
+        <v>4572463.037750726</v>
       </c>
       <c r="C101">
-        <v>6143816.146606104</v>
+        <v>6143816.146606103</v>
       </c>
       <c r="D101">
-        <v>8898336.122738799</v>
+        <v>8898336.122738807</v>
       </c>
       <c r="E101">
         <v>12432872.62727318</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>957027.1474361992</v>
+        <v>957027.1474361984</v>
       </c>
       <c r="C102">
-        <v>1105886.906389099</v>
+        <v>1105886.906389098</v>
       </c>
       <c r="D102">
-        <v>1392783.045298247</v>
+        <v>1392783.045298248</v>
       </c>
       <c r="E102">
         <v>1695391.721900888</v>
@@ -2111,10 +2111,10 @@
         <v>6111848.24411992</v>
       </c>
       <c r="D103">
-        <v>8102791.335906717</v>
+        <v>8102791.335906722</v>
       </c>
       <c r="E103">
-        <v>9975562.812495431</v>
+        <v>9975562.812495433</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>11516303.26110801</v>
+        <v>11516303.26110802</v>
       </c>
       <c r="C104">
         <v>15099860.36782568</v>
       </c>
       <c r="D104">
-        <v>20990088.03206312</v>
+        <v>20990088.03206313</v>
       </c>
       <c r="E104">
-        <v>27668070.44220431</v>
+        <v>27668070.44220432</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,13 +2142,13 @@
         <v>1220017.492889053</v>
       </c>
       <c r="C105">
-        <v>1976888.370807247</v>
+        <v>1976888.370807248</v>
       </c>
       <c r="D105">
-        <v>2935617.436188854</v>
+        <v>2935617.436188855</v>
       </c>
       <c r="E105">
-        <v>3966050.490961205</v>
+        <v>3966050.490961207</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2165,7 +2165,7 @@
         <v>3021564.023156379</v>
       </c>
       <c r="E106">
-        <v>4222131.712706059</v>
+        <v>4222131.71270606</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,7 +2173,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>5580667.86932306</v>
+        <v>5580667.869323062</v>
       </c>
       <c r="C107">
         <v>8369437.74628963</v>
@@ -2182,7 +2182,7 @@
         <v>14153642.0032062</v>
       </c>
       <c r="E107">
-        <v>22262149.03063195</v>
+        <v>22262149.03063196</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>11739233.80629938</v>
+        <v>11739233.80629939</v>
       </c>
       <c r="C108">
-        <v>15174206.42443825</v>
+        <v>15174206.42443824</v>
       </c>
       <c r="D108">
         <v>21005599.95366471</v>
       </c>
       <c r="E108">
-        <v>27426293.20830971</v>
+        <v>27426293.20830972</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1754251.31990791</v>
+        <v>1754251.319907909</v>
       </c>
       <c r="C109">
-        <v>2555258.740559263</v>
+        <v>2555258.740559264</v>
       </c>
       <c r="D109">
-        <v>3981168.738527124</v>
+        <v>3981168.738527122</v>
       </c>
       <c r="E109">
-        <v>5894079.004468719</v>
+        <v>5894079.004468725</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>89466817.3153034</v>
+        <v>89466817.31530337</v>
       </c>
       <c r="C110">
-        <v>86046852.47278634</v>
+        <v>86046852.47278637</v>
       </c>
       <c r="D110">
-        <v>95394927.85009225</v>
+        <v>95394927.85009219</v>
       </c>
       <c r="E110">
-        <v>94492377.69068897</v>
+        <v>94492377.69068909</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>15337168.68262344</v>
+        <v>15337168.68262343</v>
       </c>
       <c r="C111">
-        <v>19253577.48700468</v>
+        <v>19253577.48700469</v>
       </c>
       <c r="D111">
-        <v>27485376.48329303</v>
+        <v>27485376.48329302</v>
       </c>
       <c r="E111">
-        <v>38545405.55303352</v>
+        <v>38545405.55303357</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2261,13 +2261,13 @@
         <v>3073170.725053974</v>
       </c>
       <c r="C112">
-        <v>4497910.298052999</v>
+        <v>4497910.298052996</v>
       </c>
       <c r="D112">
-        <v>7468945.036144372</v>
+        <v>7468945.03614437</v>
       </c>
       <c r="E112">
-        <v>11524630.25813951</v>
+        <v>11524630.25813952</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2281,10 +2281,10 @@
         <v>1626586.389497597</v>
       </c>
       <c r="D113">
-        <v>2119645.975309699</v>
+        <v>2119645.9753097</v>
       </c>
       <c r="E113">
-        <v>2419488.993334099</v>
+        <v>2419488.993334097</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,13 +2292,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2470904.223307133</v>
+        <v>2470904.223307132</v>
       </c>
       <c r="C114">
-        <v>3606436.972465273</v>
+        <v>3606436.97246527</v>
       </c>
       <c r="D114">
-        <v>6384764.399710034</v>
+        <v>6384764.399710033</v>
       </c>
       <c r="E114">
         <v>9876046.034851715</v>
@@ -2309,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>6607317.058866045</v>
+        <v>6607317.058866044</v>
       </c>
       <c r="C115">
-        <v>8448777.4517482</v>
+        <v>8448777.451748196</v>
       </c>
       <c r="D115">
         <v>11592425.10818241</v>
@@ -2329,13 +2329,13 @@
         <v>4968292.672170592</v>
       </c>
       <c r="C116">
-        <v>6503735.160698255</v>
+        <v>6503735.160698252</v>
       </c>
       <c r="D116">
-        <v>9336181.295180466</v>
+        <v>9336181.295180464</v>
       </c>
       <c r="E116">
-        <v>12847128.81235224</v>
+        <v>12847128.81235225</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>830505.6566385955</v>
+        <v>830505.6566385954</v>
       </c>
       <c r="C117">
         <v>1161847.421069712</v>
@@ -2352,7 +2352,7 @@
         <v>1665436.123457621</v>
       </c>
       <c r="E117">
-        <v>2326431.72435971</v>
+        <v>2326431.724359709</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2366,7 +2366,7 @@
         <v>661800.5949074012</v>
       </c>
       <c r="D118">
-        <v>859402.1874374205</v>
+        <v>859402.1874374202</v>
       </c>
       <c r="E118">
         <v>1140055.12903061</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>281353.1760897947</v>
+        <v>281353.1760897946</v>
       </c>
       <c r="C119">
-        <v>335403.9031571256</v>
+        <v>335403.9031571255</v>
       </c>
       <c r="D119">
-        <v>442200.5249967634</v>
+        <v>442200.5249967632</v>
       </c>
       <c r="E119">
-        <v>549893.972310123</v>
+        <v>549893.9723101233</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2397,10 +2397,10 @@
         <v>19387776.95324304</v>
       </c>
       <c r="C120">
-        <v>29022267.4802152</v>
+        <v>29022267.48021519</v>
       </c>
       <c r="D120">
-        <v>42992533.06632286</v>
+        <v>42992533.06632285</v>
       </c>
       <c r="E120">
         <v>60721161.29355522</v>
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>22922565.01654149</v>
+        <v>22922565.0165415</v>
       </c>
       <c r="C121">
         <v>24164463.05219634</v>
@@ -2471,7 +2471,7 @@
         <v>5080294.525767487</v>
       </c>
       <c r="E124">
-        <v>5710329.443508422</v>
+        <v>5710329.443508421</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,13 +2479,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7828594.622405515</v>
+        <v>7828594.622405516</v>
       </c>
       <c r="C125">
         <v>9154597.449427089</v>
       </c>
       <c r="D125">
-        <v>12327807.21002731</v>
+        <v>12327807.2100273</v>
       </c>
       <c r="E125">
         <v>15897369.07879983</v>
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7403122.48675721</v>
+        <v>7403122.486757209</v>
       </c>
       <c r="C126">
-        <v>8271898.227471215</v>
+        <v>8271898.227471212</v>
       </c>
       <c r="D126">
-        <v>9178936.792116446</v>
+        <v>9178936.792116445</v>
       </c>
       <c r="E126">
-        <v>9210450.585371725</v>
+        <v>9210450.585371727</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2516,13 +2516,13 @@
         <v>10548471.60703434</v>
       </c>
       <c r="C127">
-        <v>13801435.19431162</v>
+        <v>13801435.19431163</v>
       </c>
       <c r="D127">
-        <v>19173645.46525216</v>
+        <v>19173645.46525217</v>
       </c>
       <c r="E127">
-        <v>25636083.68265612</v>
+        <v>25636083.68265613</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1915505.434733892</v>
+        <v>1915505.434733891</v>
       </c>
       <c r="C128">
-        <v>2490298.578915406</v>
+        <v>2490298.578915408</v>
       </c>
       <c r="D128">
-        <v>3431467.893020434</v>
+        <v>3431467.893020432</v>
       </c>
       <c r="E128">
-        <v>4532374.729679328</v>
+        <v>4532374.729679327</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2550,10 +2550,10 @@
         <v>12397576.84147213</v>
       </c>
       <c r="C129">
-        <v>15004048.93796532</v>
+        <v>15004048.93796533</v>
       </c>
       <c r="D129">
-        <v>19496976.66488883</v>
+        <v>19496976.66488882</v>
       </c>
       <c r="E129">
         <v>24550363.11909636</v>
@@ -2567,10 +2567,10 @@
         <v>3563738.577511906</v>
       </c>
       <c r="C130">
-        <v>5391530.487607345</v>
+        <v>5391530.487607346</v>
       </c>
       <c r="D130">
-        <v>8392492.542931218</v>
+        <v>8392492.542931221</v>
       </c>
       <c r="E130">
         <v>12549912.3562161</v>
@@ -2584,7 +2584,7 @@
         <v>11447160.27928067</v>
       </c>
       <c r="C131">
-        <v>12642209.41921722</v>
+        <v>12642209.41921723</v>
       </c>
       <c r="D131">
         <v>14475124.75294559</v>
@@ -2604,10 +2604,10 @@
         <v>32163268.08124382</v>
       </c>
       <c r="D132">
-        <v>41885467.37022553</v>
+        <v>41885467.37022555</v>
       </c>
       <c r="E132">
-        <v>53102987.35801887</v>
+        <v>53102987.35801888</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2621,7 +2621,7 @@
         <v>13881641.71521891</v>
       </c>
       <c r="D133">
-        <v>17169961.80801524</v>
+        <v>17169961.80801525</v>
       </c>
       <c r="E133">
         <v>20510677.65680094</v>
@@ -2632,16 +2632,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7914275.428196834</v>
+        <v>7914275.428196833</v>
       </c>
       <c r="C134">
         <v>14625939.67629747</v>
       </c>
       <c r="D134">
-        <v>33829989.05131479</v>
+        <v>33829989.0513148</v>
       </c>
       <c r="E134">
-        <v>64648417.86258777</v>
+        <v>64648417.86258776</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2669,10 +2669,10 @@
         <v>15156354.48818463</v>
       </c>
       <c r="C136">
-        <v>21900113.59167533</v>
+        <v>21900113.59167534</v>
       </c>
       <c r="D136">
-        <v>33751354.94864236</v>
+        <v>33751354.94864237</v>
       </c>
       <c r="E136">
         <v>49973917.64355537</v>
@@ -2686,10 +2686,10 @@
         <v>4010444.314743011</v>
       </c>
       <c r="C137">
-        <v>4966419.20248375</v>
+        <v>4966419.202483753</v>
       </c>
       <c r="D137">
-        <v>6554392.590472958</v>
+        <v>6554392.59047296</v>
       </c>
       <c r="E137">
         <v>8514074.857790913</v>
@@ -2703,7 +2703,7 @@
         <v>10052152.63305716</v>
       </c>
       <c r="C138">
-        <v>11847602.43484075</v>
+        <v>11847602.43484076</v>
       </c>
       <c r="D138">
         <v>15142907.01936856</v>
@@ -2717,10 +2717,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>51362833.63044441</v>
+        <v>51362833.63044439</v>
       </c>
       <c r="C139">
-        <v>77807031.56271146</v>
+        <v>77807031.56271151</v>
       </c>
       <c r="D139">
         <v>108359611.574423</v>
@@ -2734,16 +2734,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>15582874.47515944</v>
+        <v>15582874.47515945</v>
       </c>
       <c r="C140">
-        <v>25158610.32925618</v>
+        <v>25158610.3292562</v>
       </c>
       <c r="D140">
-        <v>36594595.45113652</v>
+        <v>36594595.45113653</v>
       </c>
       <c r="E140">
-        <v>50091566.12748832</v>
+        <v>50091566.12748831</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,13 +2751,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>18176938.0896416</v>
+        <v>18176938.08964159</v>
       </c>
       <c r="C141">
-        <v>26434056.84144386</v>
+        <v>26434056.84144388</v>
       </c>
       <c r="D141">
-        <v>37048595.47923289</v>
+        <v>37048595.4792329</v>
       </c>
       <c r="E141">
         <v>49959309.56350201</v>
@@ -2768,13 +2768,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2908310.094342656</v>
+        <v>2908310.094342655</v>
       </c>
       <c r="C142">
-        <v>4186389.092536359</v>
+        <v>4186389.09253636</v>
       </c>
       <c r="D142">
-        <v>7003088.169854998</v>
+        <v>7003088.169854999</v>
       </c>
       <c r="E142">
         <v>11081547.40780082</v>
@@ -2785,10 +2785,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>13936848.09534259</v>
+        <v>13936848.09534258</v>
       </c>
       <c r="C143">
-        <v>22423810.37679195</v>
+        <v>22423810.37679196</v>
       </c>
       <c r="D143">
         <v>36836672.90268905</v>
@@ -2802,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>5219793.294135801</v>
+        <v>5219793.294135799</v>
       </c>
       <c r="C144">
-        <v>7252984.488450227</v>
+        <v>7252984.48845023</v>
       </c>
       <c r="D144">
         <v>11975708.47453677</v>
@@ -2819,10 +2819,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>6420345.751787035</v>
+        <v>6420345.751787032</v>
       </c>
       <c r="C145">
-        <v>10939918.27007909</v>
+        <v>10939918.2700791</v>
       </c>
       <c r="D145">
         <v>22814482.60022511</v>
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>10322445.95384375</v>
+        <v>10322445.95384374</v>
       </c>
       <c r="C146">
-        <v>16685000.47873322</v>
+        <v>16685000.47873323</v>
       </c>
       <c r="D146">
-        <v>23552347.81118571</v>
+        <v>23552347.81118569</v>
       </c>
       <c r="E146">
-        <v>31348925.21361536</v>
+        <v>31348925.21361535</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>9669524.60820367</v>
+        <v>9669524.608203672</v>
       </c>
       <c r="C147">
         <v>13086626.08623777</v>
       </c>
       <c r="D147">
-        <v>21609470.05147748</v>
+        <v>21609470.0514775</v>
       </c>
       <c r="E147">
-        <v>34603277.58877788</v>
+        <v>34603277.58877786</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>8398610.504290922</v>
+        <v>8398610.504290925</v>
       </c>
       <c r="C148">
         <v>10583451.21785698</v>
       </c>
       <c r="D148">
-        <v>14360115.43789351</v>
+        <v>14360115.4378935</v>
       </c>
       <c r="E148">
         <v>19172889.29233149</v>
@@ -2890,13 +2890,13 @@
         <v>5364917.450563887</v>
       </c>
       <c r="C149">
-        <v>6007376.010138848</v>
+        <v>6007376.010138847</v>
       </c>
       <c r="D149">
-        <v>7655160.271570841</v>
+        <v>7655160.271570844</v>
       </c>
       <c r="E149">
-        <v>9795022.678194188</v>
+        <v>9795022.678194186</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>2874062.919944939</v>
       </c>
       <c r="C150">
-        <v>3495200.587717148</v>
+        <v>3495200.587717147</v>
       </c>
       <c r="D150">
-        <v>4662688.529047694</v>
+        <v>4662688.529047696</v>
       </c>
       <c r="E150">
-        <v>6209344.733498102</v>
+        <v>6209344.733498099</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>22609294.97023352</v>
       </c>
       <c r="C151">
-        <v>24357179.09565388</v>
+        <v>24357179.09565387</v>
       </c>
       <c r="D151">
-        <v>26723468.58439275</v>
+        <v>26723468.58439276</v>
       </c>
       <c r="E151">
-        <v>26936312.36503402</v>
+        <v>26936312.36503401</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>5748125.839889878</v>
       </c>
       <c r="C152">
-        <v>7372688.739715859</v>
+        <v>7372688.739715857</v>
       </c>
       <c r="D152">
-        <v>9951708.353042092</v>
+        <v>9951708.353042098</v>
       </c>
       <c r="E152">
-        <v>13205789.50363681</v>
+        <v>13205789.5036368</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>36184364.91961888</v>
+        <v>36184364.91961887</v>
       </c>
       <c r="C153">
-        <v>39889886.68835726</v>
+        <v>39889886.68835727</v>
       </c>
       <c r="D153">
-        <v>50039259.36203174</v>
+        <v>50039259.36203168</v>
       </c>
       <c r="E153">
-        <v>59698828.434659</v>
+        <v>59698828.43465899</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,16 +2972,16 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7254897.574170162</v>
+        <v>7254897.57417016</v>
       </c>
       <c r="C154">
-        <v>9416975.902556488</v>
+        <v>9416975.90255649</v>
       </c>
       <c r="D154">
-        <v>13245686.30171428</v>
+        <v>13245686.30171427</v>
       </c>
       <c r="E154">
-        <v>17820545.80139075</v>
+        <v>17820545.80139074</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>18281283.84109005</v>
+        <v>18281283.84109003</v>
       </c>
       <c r="C155">
-        <v>20454778.38239209</v>
+        <v>20454778.38239207</v>
       </c>
       <c r="D155">
-        <v>26750105.63397883</v>
+        <v>26750105.63397881</v>
       </c>
       <c r="E155">
-        <v>34140935.84681762</v>
+        <v>34140935.84681761</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>6079589.742502038</v>
+        <v>6079589.742502036</v>
       </c>
       <c r="C156">
-        <v>7554042.855847436</v>
+        <v>7554042.85584743</v>
       </c>
       <c r="D156">
         <v>10388390.5374675</v>
       </c>
       <c r="E156">
-        <v>13959101.84869883</v>
+        <v>13959101.84869882</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,13 +3023,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>6222495.324174394</v>
+        <v>6222495.324174391</v>
       </c>
       <c r="C157">
-        <v>7366701.801374337</v>
+        <v>7366701.801374334</v>
       </c>
       <c r="D157">
-        <v>10030661.29165107</v>
+        <v>10030661.29165106</v>
       </c>
       <c r="E157">
         <v>13468049.35597329</v>
@@ -3040,13 +3040,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>18199723.66899364</v>
+        <v>18199723.66899363</v>
       </c>
       <c r="C158">
-        <v>22028102.99457412</v>
+        <v>22028102.99457411</v>
       </c>
       <c r="D158">
-        <v>28924428.67881684</v>
+        <v>28924428.67881685</v>
       </c>
       <c r="E158">
         <v>36704158.87836814</v>
@@ -3060,13 +3060,13 @@
         <v>16269007.47227691</v>
       </c>
       <c r="C159">
-        <v>20822140.00545042</v>
+        <v>20822140.00545043</v>
       </c>
       <c r="D159">
-        <v>31237915.57250168</v>
+        <v>31237915.57250169</v>
       </c>
       <c r="E159">
-        <v>46631011.98510849</v>
+        <v>46631011.98510846</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>2785236.386868545</v>
       </c>
       <c r="C160">
-        <v>3565035.77961163</v>
+        <v>3565035.779611628</v>
       </c>
       <c r="D160">
-        <v>5229797.641750155</v>
+        <v>5229797.641750151</v>
       </c>
       <c r="E160">
-        <v>7528101.438565344</v>
+        <v>7528101.438565345</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3094,13 +3094,13 @@
         <v>12743269.20457114</v>
       </c>
       <c r="C161">
-        <v>16898853.95625264</v>
+        <v>16898853.95625263</v>
       </c>
       <c r="D161">
-        <v>25091561.41398895</v>
+        <v>25091561.41398896</v>
       </c>
       <c r="E161">
-        <v>35847746.15735372</v>
+        <v>35847746.15735371</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,16 +3108,16 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7748208.55537442</v>
+        <v>7748208.555374418</v>
       </c>
       <c r="C162">
-        <v>12676299.47775153</v>
+        <v>12676299.47775152</v>
       </c>
       <c r="D162">
-        <v>21669693.49453346</v>
+        <v>21669693.49453345</v>
       </c>
       <c r="E162">
-        <v>34973149.21651922</v>
+        <v>34973149.21651921</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1224363.44958615</v>
+        <v>1224363.449586149</v>
       </c>
       <c r="C164">
-        <v>1972211.385079623</v>
+        <v>1972211.385079622</v>
       </c>
       <c r="D164">
-        <v>3224785.124996875</v>
+        <v>3224785.124996874</v>
       </c>
       <c r="E164">
-        <v>5008879.881558505</v>
+        <v>5008879.881558501</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,7 +3159,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>10251063.40552131</v>
+        <v>10251063.40552132</v>
       </c>
       <c r="C165">
         <v>12000505.85368921</v>
@@ -3168,7 +3168,7 @@
         <v>15501264.83491633</v>
       </c>
       <c r="E165">
-        <v>19334817.81728492</v>
+        <v>19334817.8172849</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,10 +3176,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3866629.179275583</v>
+        <v>3866629.179275585</v>
       </c>
       <c r="C166">
-        <v>5478491.802771162</v>
+        <v>5478491.802771163</v>
       </c>
       <c r="D166">
         <v>9178380.494358353</v>
@@ -3193,16 +3193,16 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>17821287.43982091</v>
+        <v>17821287.4398209</v>
       </c>
       <c r="C167">
-        <v>22661384.42159158</v>
+        <v>22661384.42159159</v>
       </c>
       <c r="D167">
-        <v>33888776.12248471</v>
+        <v>33888776.1224847</v>
       </c>
       <c r="E167">
-        <v>50111697.28231831</v>
+        <v>50111697.2823183</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7939973.422334474</v>
+        <v>7939973.422334475</v>
       </c>
       <c r="C169">
         <v>10836662.11176032</v>
       </c>
       <c r="D169">
-        <v>15388984.93049096</v>
+        <v>15388984.93049095</v>
       </c>
       <c r="E169">
         <v>21339925.52573091</v>
@@ -3250,10 +3250,10 @@
         <v>25490240.31452638</v>
       </c>
       <c r="D170">
-        <v>37473913.94723812</v>
+        <v>37473913.94723814</v>
       </c>
       <c r="E170">
-        <v>53298878.40566181</v>
+        <v>53298878.40566178</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3264,7 +3264,7 @@
         <v>6859704.929499852</v>
       </c>
       <c r="C171">
-        <v>8656873.755946463</v>
+        <v>8656873.755946465</v>
       </c>
       <c r="D171">
         <v>13212764.83931042</v>
@@ -3284,10 +3284,10 @@
         <v>7557106.540306645</v>
       </c>
       <c r="D172">
-        <v>9141821.749225428</v>
+        <v>9141821.749225434</v>
       </c>
       <c r="E172">
-        <v>10603965.33725209</v>
+        <v>10603965.33725208</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3301,10 +3301,10 @@
         <v>20872008.53989454</v>
       </c>
       <c r="D173">
-        <v>31203077.54074464</v>
+        <v>31203077.54074466</v>
       </c>
       <c r="E173">
-        <v>45857499.22162525</v>
+        <v>45857499.22162523</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,13 +3315,13 @@
         <v>32478889.67846984</v>
       </c>
       <c r="C174">
-        <v>43033735.74850927</v>
+        <v>43033735.74850929</v>
       </c>
       <c r="D174">
-        <v>64097887.29156982</v>
+        <v>64097887.29156983</v>
       </c>
       <c r="E174">
-        <v>93735835.72423971</v>
+        <v>93735835.72423968</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,7 +3335,7 @@
         <v>166823743.1065215</v>
       </c>
       <c r="D175">
-        <v>195312589.6995635</v>
+        <v>195312589.6995636</v>
       </c>
       <c r="E175">
         <v>216905915.4988078</v>
@@ -3349,13 +3349,13 @@
         <v>16560793.8200223</v>
       </c>
       <c r="C176">
-        <v>20372504.81280939</v>
+        <v>20372504.8128094</v>
       </c>
       <c r="D176">
-        <v>27535098.38711164</v>
+        <v>27535098.38711163</v>
       </c>
       <c r="E176">
-        <v>36194718.17999301</v>
+        <v>36194718.17999303</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>11437298.2319529</v>
       </c>
       <c r="C177">
-        <v>17668190.01464885</v>
+        <v>17668190.01464886</v>
       </c>
       <c r="D177">
         <v>29217798.84410179</v>
       </c>
       <c r="E177">
-        <v>45313906.91625099</v>
+        <v>45313906.91625102</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3383,13 +3383,13 @@
         <v>4715143.758782363</v>
       </c>
       <c r="C178">
-        <v>6789174.588278343</v>
+        <v>6789174.588278342</v>
       </c>
       <c r="D178">
         <v>10464765.50569098</v>
       </c>
       <c r="E178">
-        <v>15586225.06996871</v>
+        <v>15586225.0699687</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>18899418.38154182</v>
+        <v>18899418.38154183</v>
       </c>
       <c r="C179">
-        <v>22991409.52630342</v>
+        <v>22991409.52630343</v>
       </c>
       <c r="D179">
-        <v>33866489.96768137</v>
+        <v>33866489.96768139</v>
       </c>
       <c r="E179">
-        <v>47466459.02243704</v>
+        <v>47466459.02243701</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>730916.2387789157</v>
+        <v>730916.2387789158</v>
       </c>
       <c r="C180">
         <v>851851.6138945379</v>
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>73942226.40146622</v>
+        <v>73942226.40146619</v>
       </c>
       <c r="C182">
-        <v>76542593.40538396</v>
+        <v>76542593.40538403</v>
       </c>
       <c r="D182">
-        <v>94523507.47468461</v>
+        <v>94523507.4746846</v>
       </c>
       <c r="E182">
-        <v>111086653.1272784</v>
+        <v>111086653.1272785</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,10 +3465,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>4201919.443994936</v>
+        <v>4201919.443994937</v>
       </c>
       <c r="C183">
-        <v>3622764.221663626</v>
+        <v>3622764.221663627</v>
       </c>
       <c r="D183">
         <v>3729944.6958802</v>
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>966311.5224508205</v>
+        <v>966311.5224508207</v>
       </c>
       <c r="C184">
-        <v>1019451.164015463</v>
+        <v>1019451.164015462</v>
       </c>
       <c r="D184">
         <v>1031082.523931491</v>
       </c>
       <c r="E184">
-        <v>829243.0409641389</v>
+        <v>829243.0409641388</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,16 +3499,16 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>12465418.63961558</v>
+        <v>12465418.63961559</v>
       </c>
       <c r="C185">
-        <v>15801493.04223967</v>
+        <v>15801493.04223966</v>
       </c>
       <c r="D185">
         <v>21947328.00939887</v>
       </c>
       <c r="E185">
-        <v>30221301.93735973</v>
+        <v>30221301.93735972</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3519,10 +3519,10 @@
         <v>5625911.501370947</v>
       </c>
       <c r="C186">
-        <v>7640386.848664695</v>
+        <v>7640386.848664692</v>
       </c>
       <c r="D186">
-        <v>11321959.59968119</v>
+        <v>11321959.5996812</v>
       </c>
       <c r="E186">
         <v>16564130.45602662</v>
@@ -3536,13 +3536,13 @@
         <v>2361215.666680087</v>
       </c>
       <c r="C187">
-        <v>3079458.179162912</v>
+        <v>3079458.17916291</v>
       </c>
       <c r="D187">
-        <v>4664819.663910084</v>
+        <v>4664819.663910083</v>
       </c>
       <c r="E187">
-        <v>6848167.989052575</v>
+        <v>6848167.989052576</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6138456.118865857</v>
+        <v>6138456.118865858</v>
       </c>
       <c r="C188">
-        <v>6425018.652891316</v>
+        <v>6425018.652891322</v>
       </c>
       <c r="D188">
         <v>7721588.664719691</v>
       </c>
       <c r="E188">
-        <v>8625019.670497002</v>
+        <v>8625019.670497006</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>84746023.68419842</v>
       </c>
       <c r="C189">
-        <v>98934840.06972483</v>
+        <v>98934840.0697249</v>
       </c>
       <c r="D189">
         <v>135057605.3720062</v>
       </c>
       <c r="E189">
-        <v>177351966.9745946</v>
+        <v>177351966.9745947</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>27071033.09974655</v>
+        <v>27071033.09974656</v>
       </c>
       <c r="C190">
-        <v>36565146.80507253</v>
+        <v>36565146.80507256</v>
       </c>
       <c r="D190">
         <v>50681700.14479651</v>
       </c>
       <c r="E190">
-        <v>68820469.454174</v>
+        <v>68820469.45417403</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3610,7 +3610,7 @@
         <v>2516253.349795789</v>
       </c>
       <c r="E191">
-        <v>3509529.482790136</v>
+        <v>3509529.482790135</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3621,10 +3621,10 @@
         <v>5969866.025191164</v>
       </c>
       <c r="C192">
-        <v>7254994.693282113</v>
+        <v>7254994.693282111</v>
       </c>
       <c r="D192">
-        <v>9886632.720525851</v>
+        <v>9886632.72052585</v>
       </c>
       <c r="E192">
         <v>12629089.01877228</v>
@@ -3635,16 +3635,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>14887088.96011866</v>
+        <v>14887088.96011864</v>
       </c>
       <c r="C193">
-        <v>19168706.37741105</v>
+        <v>19168706.37741104</v>
       </c>
       <c r="D193">
-        <v>27391399.89086552</v>
+        <v>27391399.89086554</v>
       </c>
       <c r="E193">
-        <v>37298617.88181954</v>
+        <v>37298617.88181955</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>9091757.900643893</v>
+        <v>9091757.900643885</v>
       </c>
       <c r="C194">
         <v>11919003.32441584</v>
       </c>
       <c r="D194">
-        <v>17951425.91717741</v>
+        <v>17951425.91717742</v>
       </c>
       <c r="E194">
         <v>26466948.54745276</v>
@@ -3669,13 +3669,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>24414067.93806246</v>
+        <v>24414067.93806247</v>
       </c>
       <c r="C195">
         <v>38800232.73348667</v>
       </c>
       <c r="D195">
-        <v>57592110.2701707</v>
+        <v>57592110.27017069</v>
       </c>
       <c r="E195">
         <v>81960421.93068331</v>
@@ -3686,7 +3686,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>5741200.172614048</v>
+        <v>5741200.172614049</v>
       </c>
       <c r="C196">
         <v>7693271.8720681</v>
@@ -3695,7 +3695,7 @@
         <v>12052104.90675539</v>
       </c>
       <c r="E196">
-        <v>18298011.78754392</v>
+        <v>18298011.78754391</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>18571482.60557823</v>
       </c>
       <c r="E197">
-        <v>22727799.30570386</v>
+        <v>22727799.30570387</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>3784100.060855254</v>
       </c>
       <c r="C198">
-        <v>4798829.570284299</v>
+        <v>4798829.5702843</v>
       </c>
       <c r="D198">
-        <v>6488831.271828537</v>
+        <v>6488831.271828539</v>
       </c>
       <c r="E198">
-        <v>8315048.526477023</v>
+        <v>8315048.526477024</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,7 +3740,7 @@
         <v>9303507.196704976</v>
       </c>
       <c r="C199">
-        <v>10869300.02382077</v>
+        <v>10869300.02382076</v>
       </c>
       <c r="D199">
         <v>13939281.47453096</v>
@@ -3771,7 +3771,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>8220671.435856979</v>
+        <v>8220671.435856983</v>
       </c>
       <c r="C201">
         <v>11756350.68993259</v>
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>59568773.04269268</v>
+        <v>59568773.04269265</v>
       </c>
       <c r="C202">
-        <v>99868341.3304082</v>
+        <v>99868341.33040817</v>
       </c>
       <c r="D202">
         <v>185160122.1120161</v>
       </c>
       <c r="E202">
-        <v>305908767.880292</v>
+        <v>305908767.8802919</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3805,16 +3805,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>21591479.83760488</v>
+        <v>21591479.83760489</v>
       </c>
       <c r="C203">
-        <v>26878491.98628068</v>
+        <v>26878491.98628067</v>
       </c>
       <c r="D203">
-        <v>38043659.56368848</v>
+        <v>38043659.5636885</v>
       </c>
       <c r="E203">
-        <v>52508835.87072291</v>
+        <v>52508835.8707229</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,13 +3822,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7849506.916002089</v>
+        <v>7849506.916002085</v>
       </c>
       <c r="C204">
-        <v>9640354.600115294</v>
+        <v>9640354.600115297</v>
       </c>
       <c r="D204">
-        <v>12623113.70285858</v>
+        <v>12623113.70285857</v>
       </c>
       <c r="E204">
         <v>15756388.04526007</v>
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>967432.2579188674</v>
+        <v>967432.2579188669</v>
       </c>
       <c r="C205">
         <v>1317808.271697104</v>
@@ -3848,7 +3848,7 @@
         <v>1873575.027001564</v>
       </c>
       <c r="E205">
-        <v>2607485.871754877</v>
+        <v>2607485.871754876</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3862,7 +3862,7 @@
         <v>34799254.6343855</v>
       </c>
       <c r="D206">
-        <v>42532857.65607211</v>
+        <v>42532857.6560721</v>
       </c>
       <c r="E206">
         <v>46571111.1583029</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>3569140.061287466</v>
+        <v>3569140.061287465</v>
       </c>
       <c r="C207">
-        <v>4587274.501573219</v>
+        <v>4587274.501573218</v>
       </c>
       <c r="D207">
         <v>5991334.673558454</v>
       </c>
       <c r="E207">
-        <v>7096823.933262049</v>
+        <v>7096823.933262048</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>3253286.958518664</v>
+        <v>3253286.958518662</v>
       </c>
       <c r="C208">
-        <v>4382485.461324414</v>
+        <v>4382485.461324413</v>
       </c>
       <c r="D208">
-        <v>6105455.334007186</v>
+        <v>6105455.334007187</v>
       </c>
       <c r="E208">
-        <v>7762151.177005366</v>
+        <v>7762151.177005365</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3913,10 +3913,10 @@
         <v>31172419.38884928</v>
       </c>
       <c r="D209">
-        <v>44214244.41553616</v>
+        <v>44214244.41553615</v>
       </c>
       <c r="E209">
-        <v>58826666.72627736</v>
+        <v>58826666.72627734</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2589995.442704179</v>
+        <v>2589995.442704178</v>
       </c>
       <c r="C210">
         <v>4095780.804976088</v>
       </c>
       <c r="D210">
-        <v>6390756.985129017</v>
+        <v>6390756.985129018</v>
       </c>
       <c r="E210">
-        <v>9240656.163101627</v>
+        <v>9240656.163101625</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,10 +3941,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>46707151.36189534</v>
+        <v>46707151.36189535</v>
       </c>
       <c r="C211">
-        <v>51972070.34031316</v>
+        <v>51972070.34031313</v>
       </c>
       <c r="D211">
         <v>65266016.42450618</v>
@@ -3967,7 +3967,7 @@
         <v>29230623.30616127</v>
       </c>
       <c r="E212">
-        <v>37563739.58964954</v>
+        <v>37563739.58964956</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,7 +3975,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>2937433.855749861</v>
+        <v>2937433.85574986</v>
       </c>
       <c r="C213">
         <v>4054822.996926327</v>
@@ -3984,7 +3984,7 @@
         <v>6162515.664231553</v>
       </c>
       <c r="E213">
-        <v>8871029.916577561</v>
+        <v>8871029.916577559</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>3871976.061992382</v>
       </c>
       <c r="E214">
-        <v>4891485.037912326</v>
+        <v>4891485.037912324</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>1744966.813356184</v>
       </c>
       <c r="C215">
-        <v>2472637.085690655</v>
+        <v>2472637.085690654</v>
       </c>
       <c r="D215">
         <v>3978057.597937379</v>
       </c>
       <c r="E215">
-        <v>6009538.760863714</v>
+        <v>6009538.760863713</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6402074.613295348</v>
+        <v>6402074.613295347</v>
       </c>
       <c r="C216">
-        <v>8660671.227264293</v>
+        <v>8660671.227264291</v>
       </c>
       <c r="D216">
-        <v>11994601.26876973</v>
+        <v>11994601.26876972</v>
       </c>
       <c r="E216">
-        <v>15386886.91114097</v>
+        <v>15386886.91114096</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>2581711.683718571</v>
+        <v>2581711.68371857</v>
       </c>
       <c r="C217">
         <v>4497478.893293728</v>
       </c>
       <c r="D217">
-        <v>9644779.74453599</v>
+        <v>9644779.744535999</v>
       </c>
       <c r="E217">
-        <v>17970063.04214355</v>
+        <v>17970063.04214356</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,13 +4060,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>5170299.620711506</v>
+        <v>5170299.620711505</v>
       </c>
       <c r="C218">
         <v>6536643.724973276</v>
       </c>
       <c r="D218">
-        <v>8932008.388951018</v>
+        <v>8932008.388951026</v>
       </c>
       <c r="E218">
         <v>11017371.49631409</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>5209390.470468676</v>
+        <v>5209390.470468674</v>
       </c>
       <c r="C219">
-        <v>6935870.919526728</v>
+        <v>6935870.919526733</v>
       </c>
       <c r="D219">
-        <v>9448444.762915686</v>
+        <v>9448444.762915682</v>
       </c>
       <c r="E219">
         <v>11615400.6510204</v>
@@ -4097,7 +4097,7 @@
         <v>5388602.024114388</v>
       </c>
       <c r="C220">
-        <v>7191244.889004257</v>
+        <v>7191244.889004256</v>
       </c>
       <c r="D220">
         <v>10356184.1981313</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>4166980.951278994</v>
+        <v>4166980.951278996</v>
       </c>
       <c r="C221">
-        <v>5078196.814002728</v>
+        <v>5078196.814002733</v>
       </c>
       <c r="D221">
-        <v>6585752.354940009</v>
+        <v>6585752.354940008</v>
       </c>
       <c r="E221">
-        <v>7832112.876426783</v>
+        <v>7832112.876426782</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>3977440.021371353</v>
+        <v>3977440.021371352</v>
       </c>
       <c r="C222">
-        <v>5847891.167444103</v>
+        <v>5847891.167444107</v>
       </c>
       <c r="D222">
-        <v>9823879.654157368</v>
+        <v>9823879.654157363</v>
       </c>
       <c r="E222">
-        <v>15380392.58617874</v>
+        <v>15380392.58617873</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>5109053.860962408</v>
+        <v>5109053.86096241</v>
       </c>
       <c r="C223">
-        <v>5483475.705750717</v>
+        <v>5483475.705750718</v>
       </c>
       <c r="D223">
-        <v>6317169.982167266</v>
+        <v>6317169.982167263</v>
       </c>
       <c r="E223">
-        <v>6352556.519536265</v>
+        <v>6352556.519536261</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2865647.463395846</v>
+        <v>2865647.463395847</v>
       </c>
       <c r="C224">
-        <v>3805604.157880948</v>
+        <v>3805604.157880947</v>
       </c>
       <c r="D224">
         <v>5487500.791433522</v>
       </c>
       <c r="E224">
-        <v>7329188.878931038</v>
+        <v>7329188.878931041</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>3198141.980684865</v>
+        <v>3198141.980684864</v>
       </c>
       <c r="C225">
-        <v>3894521.971900284</v>
+        <v>3894521.971900282</v>
       </c>
       <c r="D225">
-        <v>5101552.126155935</v>
+        <v>5101552.126155938</v>
       </c>
       <c r="E225">
-        <v>6049669.127430284</v>
+        <v>6049669.127430283</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4196,16 +4196,16 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>2687173.503213844</v>
+        <v>2687173.503213845</v>
       </c>
       <c r="C226">
         <v>3703094.682105043</v>
       </c>
       <c r="D226">
-        <v>5422494.39110526</v>
+        <v>5422494.391105259</v>
       </c>
       <c r="E226">
-        <v>7367362.107379561</v>
+        <v>7367362.107379559</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2992855.305768634</v>
+        <v>2992855.305768633</v>
       </c>
       <c r="C227">
-        <v>3886930.279475304</v>
+        <v>3886930.279475303</v>
       </c>
       <c r="D227">
-        <v>5939666.475215646</v>
+        <v>5939666.475215647</v>
       </c>
       <c r="E227">
-        <v>8734958.230794765</v>
+        <v>8734958.230794769</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>26411221.05406759</v>
       </c>
       <c r="C228">
-        <v>29190906.93813988</v>
+        <v>29190906.93813987</v>
       </c>
       <c r="D228">
-        <v>35491660.84686819</v>
+        <v>35491660.84686818</v>
       </c>
       <c r="E228">
-        <v>36210426.68915816</v>
+        <v>36210426.68915814</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4250,10 +4250,10 @@
         <v>5212503.918751173</v>
       </c>
       <c r="C229">
-        <v>7424726.865919979</v>
+        <v>7424726.865919978</v>
       </c>
       <c r="D229">
-        <v>10485636.50060795</v>
+        <v>10485636.50060794</v>
       </c>
       <c r="E229">
         <v>13348998.90987065</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>4184991.506479356</v>
+        <v>4184991.506479357</v>
       </c>
       <c r="C230">
-        <v>4925725.397334651</v>
+        <v>4925725.397334653</v>
       </c>
       <c r="D230">
-        <v>6386168.070111031</v>
+        <v>6386168.070111027</v>
       </c>
       <c r="E230">
-        <v>7779051.723380704</v>
+        <v>7779051.723380702</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>11828026.98351098</v>
       </c>
       <c r="C231">
-        <v>21073963.26585889</v>
+        <v>21073963.2658589</v>
       </c>
       <c r="D231">
-        <v>32747333.39807697</v>
+        <v>32747333.39807696</v>
       </c>
       <c r="E231">
-        <v>45796414.76339059</v>
+        <v>45796414.76339062</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>2299463.794828927</v>
       </c>
       <c r="C232">
-        <v>3459125.337899577</v>
+        <v>3459125.337899578</v>
       </c>
       <c r="D232">
         <v>5856275.515548207</v>
       </c>
       <c r="E232">
-        <v>9115662.896294557</v>
+        <v>9115662.896294562</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4315,16 +4315,16 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>2330243.354510155</v>
+        <v>2330243.354510156</v>
       </c>
       <c r="C233">
         <v>3536616.088097135</v>
       </c>
       <c r="D233">
-        <v>5993460.553689908</v>
+        <v>5993460.553689909</v>
       </c>
       <c r="E233">
-        <v>9303004.697325436</v>
+        <v>9303004.697325423</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>16098126.62776866</v>
       </c>
       <c r="C234">
-        <v>20568129.39128988</v>
+        <v>20568129.39128989</v>
       </c>
       <c r="D234">
-        <v>27602798.92041911</v>
+        <v>27602798.9204191</v>
       </c>
       <c r="E234">
-        <v>34566104.03382286</v>
+        <v>34566104.03382289</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4355,10 +4355,10 @@
         <v>19470526.19871525</v>
       </c>
       <c r="D235">
-        <v>28250751.94672003</v>
+        <v>28250751.94672002</v>
       </c>
       <c r="E235">
-        <v>38589237.28241506</v>
+        <v>38589237.2824151</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>20644356.83283295</v>
       </c>
       <c r="C236">
-        <v>22906501.41025323</v>
+        <v>22906501.41025324</v>
       </c>
       <c r="D236">
-        <v>25788530.44677654</v>
+        <v>25788530.44677653</v>
       </c>
       <c r="E236">
-        <v>24959847.09330676</v>
+        <v>24959847.09330679</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>3024782.46527627</v>
       </c>
       <c r="C237">
-        <v>4211758.456642753</v>
+        <v>4211758.456642752</v>
       </c>
       <c r="D237">
-        <v>6171984.061306931</v>
+        <v>6171984.061306933</v>
       </c>
       <c r="E237">
-        <v>8393435.199264579</v>
+        <v>8393435.199264575</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>3168905.617872671</v>
+        <v>3168905.61787267</v>
       </c>
       <c r="C238">
-        <v>4072022.197545557</v>
+        <v>4072022.197545556</v>
       </c>
       <c r="D238">
-        <v>5888462.45387758</v>
+        <v>5888462.453877581</v>
       </c>
       <c r="E238">
-        <v>8130230.353278205</v>
+        <v>8130230.353278207</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>4645537.432325377</v>
       </c>
       <c r="C239">
-        <v>4776908.748595259</v>
+        <v>4776908.74859526</v>
       </c>
       <c r="D239">
-        <v>5557200.273017375</v>
+        <v>5557200.273017377</v>
       </c>
       <c r="E239">
-        <v>5702077.880921703</v>
+        <v>5702077.880921704</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,13 +4434,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>3919938.401968932</v>
+        <v>3919938.40196893</v>
       </c>
       <c r="C240">
         <v>5518827.592225007</v>
       </c>
       <c r="D240">
-        <v>8687054.896756988</v>
+        <v>8687054.896756992</v>
       </c>
       <c r="E240">
         <v>12670061.46312028</v>
@@ -4454,10 +4454,10 @@
         <v>1028769.093793364</v>
       </c>
       <c r="C241">
-        <v>1264935.06950748</v>
+        <v>1264935.069507479</v>
       </c>
       <c r="D241">
-        <v>1563009.053728881</v>
+        <v>1563009.053728882</v>
       </c>
       <c r="E241">
         <v>1748742.345152162</v>
@@ -4468,13 +4468,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>3068413.245941805</v>
+        <v>3068413.245941806</v>
       </c>
       <c r="C242">
-        <v>4449467.684650009</v>
+        <v>4449467.684650013</v>
       </c>
       <c r="D242">
-        <v>7046755.01978581</v>
+        <v>7046755.019785808</v>
       </c>
       <c r="E242">
         <v>10415043.71865264</v>
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4789886.347912121</v>
+        <v>4789886.347912119</v>
       </c>
       <c r="C243">
         <v>6519607.410705819</v>
@@ -4502,13 +4502,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>3939691.081209231</v>
+        <v>3939691.081209232</v>
       </c>
       <c r="C244">
-        <v>4836377.918097837</v>
+        <v>4836377.918097841</v>
       </c>
       <c r="D244">
-        <v>6651609.87848941</v>
+        <v>6651609.878489408</v>
       </c>
       <c r="E244">
         <v>8581996.024169773</v>
@@ -4519,16 +4519,16 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>4009084.061143038</v>
+        <v>4009084.061143037</v>
       </c>
       <c r="C245">
-        <v>5937714.344393156</v>
+        <v>5937714.344393158</v>
       </c>
       <c r="D245">
-        <v>9553904.909459677</v>
+        <v>9553904.909459673</v>
       </c>
       <c r="E245">
-        <v>14245787.70430035</v>
+        <v>14245787.70430034</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1130157.819648342</v>
+        <v>1130157.819648341</v>
       </c>
       <c r="C246">
-        <v>2154272.62471462</v>
+        <v>2154272.624714622</v>
       </c>
       <c r="D246">
-        <v>5072898.600955067</v>
+        <v>5072898.600955065</v>
       </c>
       <c r="E246">
-        <v>9620940.601699416</v>
+        <v>9620940.60169941</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1130157.819648342</v>
+        <v>1130157.819648341</v>
       </c>
       <c r="C247">
-        <v>2154272.62471462</v>
+        <v>2154272.624714622</v>
       </c>
       <c r="D247">
-        <v>5072898.600955067</v>
+        <v>5072898.600955065</v>
       </c>
       <c r="E247">
-        <v>9620940.601699416</v>
+        <v>9620940.60169941</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>49426124.72269747</v>
       </c>
       <c r="C248">
-        <v>55970372.25234546</v>
+        <v>55970372.25234543</v>
       </c>
       <c r="D248">
-        <v>67676106.6345384</v>
+        <v>67676106.63453835</v>
       </c>
       <c r="E248">
-        <v>72881452.94950131</v>
+        <v>72881452.94950123</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>25149866.44232362</v>
+        <v>25149866.44232363</v>
       </c>
       <c r="C249">
-        <v>28264755.9542036</v>
+        <v>28264755.95420359</v>
       </c>
       <c r="D249">
-        <v>36056651.10636971</v>
+        <v>36056651.1063697</v>
       </c>
       <c r="E249">
-        <v>40070065.19284751</v>
+        <v>40070065.19284748</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,7 +4607,7 @@
         <v>23003169.90470337</v>
       </c>
       <c r="C250">
-        <v>29477696.62778118</v>
+        <v>29477696.62778119</v>
       </c>
       <c r="D250">
         <v>37393931.59734645</v>
@@ -4627,7 +4627,7 @@
         <v>16641175.2272027</v>
       </c>
       <c r="D251">
-        <v>22847997.0837089</v>
+        <v>22847997.08370891</v>
       </c>
       <c r="E251">
         <v>29936858.84114337</v>
@@ -4638,10 +4638,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>5890855.852224272</v>
+        <v>5890855.852224273</v>
       </c>
       <c r="C252">
-        <v>8699964.755973361</v>
+        <v>8699964.755973358</v>
       </c>
       <c r="D252">
         <v>14229193.70286156</v>
@@ -4658,10 +4658,10 @@
         <v>712766.2274582154</v>
       </c>
       <c r="C253">
-        <v>750435.8251427782</v>
+        <v>750435.8251427779</v>
       </c>
       <c r="D253">
-        <v>895595.7896708022</v>
+        <v>895595.7896708023</v>
       </c>
       <c r="E253">
         <v>1003153.253267354</v>
@@ -4692,13 +4692,13 @@
         <v>760283.9759554298</v>
       </c>
       <c r="C255">
-        <v>808161.6578460688</v>
+        <v>808161.6578460684</v>
       </c>
       <c r="D255">
-        <v>895595.7896708022</v>
+        <v>895595.7896708023</v>
       </c>
       <c r="E255">
-        <v>820761.7526732897</v>
+        <v>820761.7526732896</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,13 +4706,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4666846.59522082</v>
+        <v>4666846.595220822</v>
       </c>
       <c r="C256">
-        <v>5250674.165650346</v>
+        <v>5250674.165650347</v>
       </c>
       <c r="D256">
-        <v>6394099.496186208</v>
+        <v>6394099.496186205</v>
       </c>
       <c r="E256">
         <v>7346259.251731323</v>
@@ -4726,13 +4726,13 @@
         <v>1827650.172892949</v>
       </c>
       <c r="C257">
-        <v>1936015.159011156</v>
+        <v>1936015.159011155</v>
       </c>
       <c r="D257">
-        <v>2270990.22078981</v>
+        <v>2270990.220789812</v>
       </c>
       <c r="E257">
-        <v>2469856.890150547</v>
+        <v>2469856.890150546</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4743,10 +4743,10 @@
         <v>1613850.375194485</v>
       </c>
       <c r="C258">
-        <v>1925490.103150969</v>
+        <v>1925490.103150968</v>
       </c>
       <c r="D258">
-        <v>2712637.583052947</v>
+        <v>2712637.583052948</v>
       </c>
       <c r="E258">
         <v>3626409.171488734</v>
@@ -4760,7 +4760,7 @@
         <v>1654196.634574347</v>
       </c>
       <c r="C259">
-        <v>2021764.608308517</v>
+        <v>2021764.608308516</v>
       </c>
       <c r="D259">
         <v>2648050.973932639</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>6991659.309183724</v>
+        <v>6991659.309183732</v>
       </c>
       <c r="C260">
         <v>11489350.12049105</v>
       </c>
       <c r="D260">
-        <v>23269976.75668423</v>
+        <v>23269976.75668424</v>
       </c>
       <c r="E260">
         <v>36000030.13555083</v>
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1586375.522969675</v>
+        <v>1586375.522969674</v>
       </c>
       <c r="C261">
-        <v>1998167.580892852</v>
+        <v>1998167.580892851</v>
       </c>
       <c r="D261">
         <v>4291030.654388279</v>
       </c>
       <c r="E261">
-        <v>6128900.419728749</v>
+        <v>6128900.419728744</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4814,10 +4814,10 @@
         <v>2068049.731401086</v>
       </c>
       <c r="D262">
-        <v>4733572.707937376</v>
+        <v>4733572.707937378</v>
       </c>
       <c r="E262">
-        <v>8557994.532064004</v>
+        <v>8557994.532064006</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>1900737.532143988</v>
       </c>
       <c r="C263">
-        <v>2485691.44322694</v>
+        <v>2485691.443226941</v>
       </c>
       <c r="D263">
         <v>4440471.270284403</v>
       </c>
       <c r="E263">
-        <v>6077099.875551194</v>
+        <v>6077099.875551198</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>854742.0298656233</v>
+        <v>854742.0298656238</v>
       </c>
       <c r="C264">
         <v>1131760.28329044</v>
@@ -4859,7 +4859,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>841174.6960582326</v>
+        <v>841174.6960582329</v>
       </c>
       <c r="C265">
         <v>1131760.28329044</v>
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>674165.1257108435</v>
+        <v>674165.1257108432</v>
       </c>
       <c r="C266">
         <v>1217856.563912126</v>
@@ -4893,10 +4893,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>990415.3679395318</v>
+        <v>990415.3679395324</v>
       </c>
       <c r="C267">
-        <v>1248838.933286002</v>
+        <v>1248838.933286003</v>
       </c>
       <c r="D267">
         <v>2107479.635773244</v>
@@ -4910,7 +4910,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1276394.098941118</v>
+        <v>1276394.098941117</v>
       </c>
       <c r="C268">
         <v>1873282.107087048</v>
@@ -4919,7 +4919,7 @@
         <v>4565656.616269128</v>
       </c>
       <c r="E268">
-        <v>7720057.259466021</v>
+        <v>7720057.259466014</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1540790.019436064</v>
+        <v>1540790.019436063</v>
       </c>
       <c r="C269">
-        <v>1998167.580892852</v>
+        <v>1998167.580892851</v>
       </c>
       <c r="D269">
         <v>4325358.899623385</v>
       </c>
       <c r="E269">
-        <v>6246763.889338918</v>
+        <v>6246763.889338912</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>963285.6929105876</v>
+        <v>963285.6929105881</v>
       </c>
       <c r="C270">
-        <v>1671206.057437899</v>
+        <v>1671206.057437898</v>
       </c>
       <c r="D270">
-        <v>3903393.21315176</v>
+        <v>3903393.213151759</v>
       </c>
       <c r="E270">
-        <v>6453037.743633715</v>
+        <v>6453037.743633714</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>318723.4841730337</v>
+        <v>318723.4841730336</v>
       </c>
       <c r="C271">
         <v>474054.9977037287</v>
       </c>
       <c r="D271">
-        <v>929179.6627941311</v>
+        <v>929179.6627941318</v>
       </c>
       <c r="E271">
         <v>1141103.596391476</v>
@@ -4978,10 +4978,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>229777.3955666057</v>
+        <v>229777.3955666056</v>
       </c>
       <c r="C272">
-        <v>397181.2142923132</v>
+        <v>397181.2142923133</v>
       </c>
       <c r="D272">
         <v>1025301.696876283</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>782454.5994378784</v>
+        <v>782454.5994378782</v>
       </c>
       <c r="C273">
         <v>1261249.334446328</v>
       </c>
       <c r="D273">
-        <v>2729208.432471721</v>
+        <v>2729208.432471722</v>
       </c>
       <c r="E273">
-        <v>4227731.772620196</v>
+        <v>4227731.772620193</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>947761.9091782753</v>
+        <v>947761.909178275</v>
       </c>
       <c r="C274">
         <v>1374197.036038537</v>
       </c>
       <c r="D274">
-        <v>2603244.966357641</v>
+        <v>2603244.966357642</v>
       </c>
       <c r="E274">
-        <v>3221128.969615388</v>
+        <v>3221128.969615385</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5038,7 +5038,7 @@
         <v>6276761.357410326</v>
       </c>
       <c r="E275">
-        <v>9515854.414202668</v>
+        <v>9515854.414202662</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>415950.2496335767</v>
       </c>
       <c r="C276">
-        <v>689802.6298062594</v>
+        <v>689802.6298062593</v>
       </c>
       <c r="D276">
-        <v>1561087.592451405</v>
+        <v>1561087.592451404</v>
       </c>
       <c r="E276">
-        <v>2389521.865949193</v>
+        <v>2389521.865949195</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>3507098.254936962</v>
+        <v>3507098.25493696</v>
       </c>
       <c r="C277">
-        <v>4390207.049113478</v>
+        <v>4390207.049113479</v>
       </c>
       <c r="D277">
-        <v>6505846.139159099</v>
+        <v>6505846.1391591</v>
       </c>
       <c r="E277">
-        <v>7640671.853847834</v>
+        <v>7640671.853847832</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>2443462.504954366</v>
       </c>
       <c r="C278">
-        <v>3358193.418037712</v>
+        <v>3358193.418037713</v>
       </c>
       <c r="D278">
-        <v>5129485.946347795</v>
+        <v>5129485.946347797</v>
       </c>
       <c r="E278">
-        <v>6863387.918014936</v>
+        <v>6863387.918014932</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5103,10 +5103,10 @@
         <v>1267783.455396609</v>
       </c>
       <c r="D279">
-        <v>1584666.807598486</v>
+        <v>1584666.807598485</v>
       </c>
       <c r="E279">
-        <v>1801423.185607146</v>
+        <v>1801423.185607145</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1116958.944121465</v>
+        <v>1116958.944121466</v>
       </c>
       <c r="C280">
         <v>1267783.455396609</v>
       </c>
       <c r="D280">
-        <v>1584666.807598486</v>
+        <v>1584666.807598485</v>
       </c>
       <c r="E280">
-        <v>1801423.185607146</v>
+        <v>1801423.185607145</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5131,10 +5131,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>2517270.104362734</v>
+        <v>2517270.104362735</v>
       </c>
       <c r="C281">
-        <v>3705623.891978216</v>
+        <v>3705623.891978217</v>
       </c>
       <c r="D281">
         <v>7287665.179107976</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>879574.6342742572</v>
+        <v>879574.634274257</v>
       </c>
       <c r="C282">
         <v>1199508.571965387</v>
@@ -5165,13 +5165,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>839593.9690799728</v>
+        <v>839593.9690799726</v>
       </c>
       <c r="C283">
         <v>1172553.323157176</v>
       </c>
       <c r="D283">
-        <v>2231173.140887807</v>
+        <v>2231173.140887808</v>
       </c>
       <c r="E283">
         <v>2610797.50850714</v>
@@ -5182,7 +5182,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>687667.441341692</v>
+        <v>687667.4413416919</v>
       </c>
       <c r="C284">
         <v>1091687.576732543</v>
@@ -5202,13 +5202,13 @@
         <v>584100.3505492778</v>
       </c>
       <c r="C285">
-        <v>760190.6532558777</v>
+        <v>760190.6532558776</v>
       </c>
       <c r="D285">
         <v>1401792.940160445</v>
       </c>
       <c r="E285">
-        <v>1593014.577299462</v>
+        <v>1593014.577299463</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5222,10 +5222,10 @@
         <v>1307401.688377753</v>
       </c>
       <c r="D286">
-        <v>1584666.807598486</v>
+        <v>1584666.807598485</v>
       </c>
       <c r="E286">
-        <v>1576245.287406253</v>
+        <v>1576245.287406252</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>7925961.619514153</v>
+        <v>7925961.619514151</v>
       </c>
       <c r="C287">
         <v>10899159.95328041</v>
       </c>
       <c r="D287">
-        <v>16107024.24038517</v>
+        <v>16107024.24038518</v>
       </c>
       <c r="E287">
-        <v>21825394.12348302</v>
+        <v>21825394.12348301</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,13 +5250,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>3365098.057658987</v>
+        <v>3365098.057658988</v>
       </c>
       <c r="C288">
-        <v>5051252.088373666</v>
+        <v>5051252.088373665</v>
       </c>
       <c r="D288">
-        <v>8836028.358921807</v>
+        <v>8836028.358921811</v>
       </c>
       <c r="E288">
         <v>13782848.38720663</v>
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>107111088.480654</v>
+        <v>107111088.4806539</v>
       </c>
       <c r="C289">
         <v>118723099.1987315</v>
       </c>
       <c r="D289">
-        <v>151162791.2933906</v>
+        <v>151162791.2933905</v>
       </c>
       <c r="E289">
-        <v>176114133.0030766</v>
+        <v>176114133.0030767</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>6574530.37563386</v>
+        <v>6574530.375633857</v>
       </c>
       <c r="C290">
-        <v>9678092.240672233</v>
+        <v>9678092.240672234</v>
       </c>
       <c r="D290">
         <v>16558020.91911596</v>
       </c>
       <c r="E290">
-        <v>26276062.72905603</v>
+        <v>26276062.72905602</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5301,16 +5301,16 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>5591430.347010168</v>
+        <v>5591430.347010169</v>
       </c>
       <c r="C291">
         <v>6287361.908382677</v>
       </c>
       <c r="D291">
-        <v>8471501.211425394</v>
+        <v>8471501.211425396</v>
       </c>
       <c r="E291">
-        <v>9613126.279959133</v>
+        <v>9613126.279959135</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,7 +5318,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>856288.2346436357</v>
+        <v>856288.234643636</v>
       </c>
       <c r="C292">
         <v>1094155.443859294</v>
@@ -5327,7 +5327,7 @@
         <v>1603066.181117988</v>
       </c>
       <c r="E292">
-        <v>2064623.247144508</v>
+        <v>2064623.247144507</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,16 +5335,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>3842321.952316631</v>
+        <v>3842321.952316632</v>
       </c>
       <c r="C293">
-        <v>5208404.524677026</v>
+        <v>5208404.524677025</v>
       </c>
       <c r="D293">
-        <v>8114470.197232503</v>
+        <v>8114470.197232502</v>
       </c>
       <c r="E293">
-        <v>11640088.91427496</v>
+        <v>11640088.91427495</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>9057512.99612755</v>
+        <v>9057512.996127551</v>
       </c>
       <c r="C295">
-        <v>12015448.75263102</v>
+        <v>12015448.75263101</v>
       </c>
       <c r="D295">
         <v>19036775.30631714</v>
       </c>
       <c r="E295">
-        <v>26493371.56400371</v>
+        <v>26493371.5640037</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>3901807.880064477</v>
       </c>
       <c r="C296">
-        <v>5008752.701287905</v>
+        <v>5008752.701287904</v>
       </c>
       <c r="D296">
-        <v>7869065.483321465</v>
+        <v>7869065.483321466</v>
       </c>
       <c r="E296">
         <v>11031572.16470196</v>
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>9076346.760663923</v>
+        <v>9076346.760663921</v>
       </c>
       <c r="C298">
         <v>13592218.66387956</v>
       </c>
       <c r="D298">
-        <v>23486253.24707555</v>
+        <v>23486253.24707557</v>
       </c>
       <c r="E298">
-        <v>35308667.63590362</v>
+        <v>35308667.63590363</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5446,7 +5446,7 @@
         <v>30085868.76623288</v>
       </c>
       <c r="E299">
-        <v>46466342.66016967</v>
+        <v>46466342.66016971</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5463,7 +5463,7 @@
         <v>18281775.71909776</v>
       </c>
       <c r="E300">
-        <v>22784299.54504319</v>
+        <v>22784299.54504318</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5477,7 +5477,7 @@
         <v>4972937.090277688</v>
       </c>
       <c r="D301">
-        <v>8115049.191819248</v>
+        <v>8115049.191819247</v>
       </c>
       <c r="E301">
         <v>11724995.48898333</v>
@@ -5494,7 +5494,7 @@
         <v>15950357.2202848</v>
       </c>
       <c r="D302">
-        <v>22318055.5006004</v>
+        <v>22318055.50060039</v>
       </c>
       <c r="E302">
         <v>26184251.14865058</v>
@@ -5511,7 +5511,7 @@
         <v>15950357.2202848</v>
       </c>
       <c r="D303">
-        <v>22318055.5006004</v>
+        <v>22318055.50060039</v>
       </c>
       <c r="E303">
         <v>26184251.14865058</v>
@@ -5528,7 +5528,7 @@
         <v>2252551.504369035</v>
       </c>
       <c r="D304">
-        <v>3460739.180789762</v>
+        <v>3460739.180789764</v>
       </c>
       <c r="E304">
         <v>4436990.786602303</v>
@@ -5545,10 +5545,10 @@
         <v>1970982.566322906</v>
       </c>
       <c r="D305">
-        <v>3615697.651571393</v>
+        <v>3615697.651571395</v>
       </c>
       <c r="E305">
-        <v>5768088.022582994</v>
+        <v>5768088.022582995</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,7 +5556,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>558709.5861274073</v>
+        <v>558709.5861274074</v>
       </c>
       <c r="C306">
         <v>741107.5451189398</v>
@@ -5579,10 +5579,10 @@
         <v>2127409.754126311</v>
       </c>
       <c r="D307">
-        <v>3512392.004383639</v>
+        <v>3512392.004383641</v>
       </c>
       <c r="E307">
-        <v>5102539.404592648</v>
+        <v>5102539.404592649</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5593,13 +5593,13 @@
         <v>410572.3575938847</v>
       </c>
       <c r="C308">
-        <v>693389.4994940228</v>
+        <v>693389.4994940229</v>
       </c>
       <c r="D308">
         <v>1410886.527445979</v>
       </c>
       <c r="E308">
-        <v>2449826.220466019</v>
+        <v>2449826.220466018</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5607,7 +5607,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>533313.6958488887</v>
+        <v>533313.6958488888</v>
       </c>
       <c r="C309">
         <v>741107.5451189398</v>
@@ -5627,10 +5627,10 @@
         <v>1873019.715350718</v>
       </c>
       <c r="C310">
-        <v>2214242.089534826</v>
+        <v>2214242.089534825</v>
       </c>
       <c r="D310">
-        <v>3446778.168581569</v>
+        <v>3446778.16858157</v>
       </c>
       <c r="E310">
         <v>4610761.553186037</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>391136.6495756653</v>
+        <v>391136.6495756651</v>
       </c>
       <c r="C311">
-        <v>503766.1442897964</v>
+        <v>503766.1442897963</v>
       </c>
       <c r="D311">
-        <v>971213.2431720975</v>
+        <v>971213.2431720974</v>
       </c>
       <c r="E311">
-        <v>1416155.681628358</v>
+        <v>1416155.681628357</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>456326.0911716095</v>
+        <v>456326.0911716093</v>
       </c>
       <c r="C312">
-        <v>535251.5283079087</v>
+        <v>535251.5283079086</v>
       </c>
       <c r="D312">
-        <v>937723.1313385769</v>
+        <v>937723.1313385768</v>
       </c>
       <c r="E312">
-        <v>1143818.050545982</v>
+        <v>1143818.050545981</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>445461.1842389522</v>
+        <v>445461.1842389519</v>
       </c>
       <c r="C313">
-        <v>535251.5283079087</v>
+        <v>535251.5283079086</v>
       </c>
       <c r="D313">
-        <v>937723.1313385769</v>
+        <v>937723.1313385768</v>
       </c>
       <c r="E313">
-        <v>1143818.050545982</v>
+        <v>1143818.050545981</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>369406.8357103506</v>
+        <v>369406.8357103504</v>
       </c>
       <c r="C314">
-        <v>503766.1442897964</v>
+        <v>503766.1442897963</v>
       </c>
       <c r="D314">
         <v>1004703.355005618</v>
       </c>
       <c r="E314">
-        <v>1525090.734061309</v>
+        <v>1525090.734061308</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>23651503.50256755</v>
+        <v>23651503.50256756</v>
       </c>
       <c r="C315">
-        <v>27507091.16265201</v>
+        <v>27507091.16265202</v>
       </c>
       <c r="D315">
-        <v>36585046.94969818</v>
+        <v>36585046.94969819</v>
       </c>
       <c r="E315">
-        <v>45005745.10598722</v>
+        <v>45005745.10598723</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>40444303.98543088</v>
+        <v>40444303.98543089</v>
       </c>
       <c r="C316">
-        <v>46447811.24959394</v>
+        <v>46447811.24959395</v>
       </c>
       <c r="D316">
-        <v>60696523.12255113</v>
+        <v>60696523.12255114</v>
       </c>
       <c r="E316">
-        <v>76543290.53312586</v>
+        <v>76543290.53312589</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5752,7 +5752,7 @@
         <v>19835161.67204729</v>
       </c>
       <c r="E317">
-        <v>26862663.35875434</v>
+        <v>26862663.35875436</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,13 +5760,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>5608960.070449243</v>
+        <v>5608960.070449245</v>
       </c>
       <c r="C318">
-        <v>7335726.612811443</v>
+        <v>7335726.612811438</v>
       </c>
       <c r="D318">
-        <v>10370489.73849899</v>
+        <v>10370489.738499</v>
       </c>
       <c r="E318">
         <v>13813968.8540653</v>
@@ -5777,13 +5777,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>3976102.605599557</v>
+        <v>3976102.605599559</v>
       </c>
       <c r="C319">
         <v>5142943.992378453</v>
       </c>
       <c r="D319">
-        <v>7314254.382184265</v>
+        <v>7314254.382184266</v>
       </c>
       <c r="E319">
         <v>9590226.02055536</v>
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>4026711.145678889</v>
+        <v>4026711.145678888</v>
       </c>
       <c r="C320">
-        <v>5079486.238279236</v>
+        <v>5079486.238279235</v>
       </c>
       <c r="D320">
         <v>6963531.983486957</v>
       </c>
       <c r="E320">
-        <v>8948656.843593614</v>
+        <v>8948656.843593618</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>19007989.37728765</v>
+        <v>19007989.37728764</v>
       </c>
       <c r="C321">
-        <v>24007341.9798879</v>
+        <v>24007341.97988788</v>
       </c>
       <c r="D321">
-        <v>32410927.64736385</v>
+        <v>32410927.64736387</v>
       </c>
       <c r="E321">
-        <v>41249523.63256837</v>
+        <v>41249523.63256838</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5831,10 +5831,10 @@
         <v>12514400.28643478</v>
       </c>
       <c r="C322">
-        <v>13549334.26223472</v>
+        <v>13549334.26223471</v>
       </c>
       <c r="D322">
-        <v>16901242.48615657</v>
+        <v>16901242.48615656</v>
       </c>
       <c r="E322">
         <v>18912237.37683032</v>
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>3233496.335054011</v>
+        <v>3233496.335054009</v>
       </c>
       <c r="C323">
-        <v>4370840.315249693</v>
+        <v>4370840.315249691</v>
       </c>
       <c r="D323">
         <v>6696675.189028784</v>
       </c>
       <c r="E323">
-        <v>9742251.004349336</v>
+        <v>9742251.004349338</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>3560939.001894923</v>
+        <v>3560939.001894922</v>
       </c>
       <c r="C324">
-        <v>4516534.992424682</v>
+        <v>4516534.992424681</v>
       </c>
       <c r="D324">
         <v>6564067.759543065</v>
       </c>
       <c r="E324">
-        <v>9052534.119085666</v>
+        <v>9052534.11908567</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>2987914.334923327</v>
+        <v>2987914.334923325</v>
       </c>
       <c r="C325">
-        <v>4176580.74568304</v>
+        <v>4176580.745683038</v>
       </c>
       <c r="D325">
         <v>6762978.903771643</v>
       </c>
       <c r="E325">
-        <v>10431967.889613</v>
+        <v>10431967.88961301</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5899,13 +5899,13 @@
         <v>6581825.585575202</v>
       </c>
       <c r="C326">
-        <v>9728711.172194684</v>
+        <v>9728711.17219469</v>
       </c>
       <c r="D326">
         <v>14960502.84106425</v>
       </c>
       <c r="E326">
-        <v>21880640.53362341</v>
+        <v>21880640.53362342</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5916,13 +5916,13 @@
         <v>3195015.515884956</v>
       </c>
       <c r="C327">
-        <v>4922801.300445164</v>
+        <v>4922801.300445161</v>
       </c>
       <c r="D327">
-        <v>7769508.653845058</v>
+        <v>7769508.653845054</v>
       </c>
       <c r="E327">
-        <v>11129132.34389177</v>
+        <v>11129132.34389176</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5933,13 +5933,13 @@
         <v>3646485.099651309</v>
       </c>
       <c r="C328">
-        <v>4922801.300445164</v>
+        <v>4922801.300445161</v>
       </c>
       <c r="D328">
-        <v>7514770.665194401</v>
+        <v>7514770.665194396</v>
       </c>
       <c r="E328">
-        <v>10623262.69189669</v>
+        <v>10623262.69189668</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5950,13 +5950,13 @@
         <v>32531.18562179777</v>
       </c>
       <c r="C329">
-        <v>41467.94778525368</v>
+        <v>41467.9477852537</v>
       </c>
       <c r="D329">
-        <v>61612.81792198602</v>
+        <v>61612.81792198597</v>
       </c>
       <c r="E329">
-        <v>82766.19747395534</v>
+        <v>82766.19747395533</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5967,13 +5967,13 @@
         <v>4896708.562388901</v>
       </c>
       <c r="C330">
-        <v>5494197.87996112</v>
+        <v>5494197.879961117</v>
       </c>
       <c r="D330">
-        <v>6941610.190730421</v>
+        <v>6941610.190730417</v>
       </c>
       <c r="E330">
-        <v>7756667.997257898</v>
+        <v>7756667.997257895</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>4173903.372681058</v>
+        <v>4173903.372681057</v>
       </c>
       <c r="C331">
-        <v>5114672.972161852</v>
+        <v>5114672.972161851</v>
       </c>
       <c r="D331">
-        <v>7177693.866663621</v>
+        <v>7177693.866663623</v>
       </c>
       <c r="E331">
-        <v>9049658.735380907</v>
+        <v>9049658.735380903</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>9032194.683345085</v>
+        <v>9032194.683345087</v>
       </c>
       <c r="C332">
         <v>11544994.59081646</v>
@@ -6007,7 +6007,7 @@
         <v>17175136.1174982</v>
       </c>
       <c r="E332">
-        <v>23556674.74069202</v>
+        <v>23556674.74069201</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6035,10 +6035,10 @@
         <v>15462182.10064872</v>
       </c>
       <c r="C334">
-        <v>19717249.58646622</v>
+        <v>19717249.58646623</v>
       </c>
       <c r="D334">
-        <v>27977757.27489801</v>
+        <v>27977757.27489799</v>
       </c>
       <c r="E334">
         <v>36457505.28742202</v>
@@ -6049,10 +6049,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>6491529.667312784</v>
+        <v>6491529.667312783</v>
       </c>
       <c r="C335">
-        <v>9347514.543306682</v>
+        <v>9347514.543306679</v>
       </c>
       <c r="D335">
         <v>15922359.03763371</v>
@@ -6066,13 +6066,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>6285028.360275376</v>
+        <v>6285028.360275378</v>
       </c>
       <c r="C336">
-        <v>7076828.531211209</v>
+        <v>7076828.53121121</v>
       </c>
       <c r="D336">
-        <v>9497433.426679283</v>
+        <v>9497433.426679285</v>
       </c>
       <c r="E336">
         <v>11680602.92767471</v>
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>5654751.437125014</v>
+        <v>5654751.437125012</v>
       </c>
       <c r="C337">
         <v>8216857.580106679</v>
@@ -6092,7 +6092,7 @@
         <v>12866149.55459855</v>
       </c>
       <c r="E337">
-        <v>17369551.37781626</v>
+        <v>17369551.37781625</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6103,13 +6103,13 @@
         <v>4844907.287095912</v>
       </c>
       <c r="C338">
-        <v>7718647.69688526</v>
+        <v>7718647.696885258</v>
       </c>
       <c r="D338">
-        <v>13937645.90535021</v>
+        <v>13937645.9053502</v>
       </c>
       <c r="E338">
-        <v>21561265.11203082</v>
+        <v>21561265.11203083</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,7 +6117,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>5725435.830089076</v>
+        <v>5725435.830089075</v>
       </c>
       <c r="C339">
         <v>8143053.470105721</v>
@@ -6126,7 +6126,7 @@
         <v>12828196.31107466</v>
       </c>
       <c r="E339">
-        <v>17420191.46929678</v>
+        <v>17420191.46929677</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6137,13 +6137,13 @@
         <v>2847623.81508624</v>
       </c>
       <c r="C340">
-        <v>3558224.90687108</v>
+        <v>3558224.906871082</v>
       </c>
       <c r="D340">
-        <v>5114011.524004399</v>
+        <v>5114011.524004397</v>
       </c>
       <c r="E340">
-        <v>6006427.545234903</v>
+        <v>6006427.545234904</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6154,13 +6154,13 @@
         <v>2034017.010775886</v>
       </c>
       <c r="C341">
-        <v>3145991.533514065</v>
+        <v>3145991.533514067</v>
       </c>
       <c r="D341">
-        <v>5607778.153908272</v>
+        <v>5607778.153908269</v>
       </c>
       <c r="E341">
-        <v>8342260.479492921</v>
+        <v>8342260.479492922</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6171,7 +6171,7 @@
         <v>643222.221296162</v>
       </c>
       <c r="C342">
-        <v>803418.1276290107</v>
+        <v>803418.1276290106</v>
       </c>
       <c r="D342">
         <v>1113112.472602944</v>
@@ -6188,13 +6188,13 @@
         <v>625837.8369368062</v>
       </c>
       <c r="C343">
-        <v>778311.3111406041</v>
+        <v>778311.311140604</v>
       </c>
       <c r="D343">
         <v>1113112.472602944</v>
       </c>
       <c r="E343">
-        <v>1284076.92064002</v>
+        <v>1284076.920640019</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6205,13 +6205,13 @@
         <v>3088692.497844863</v>
       </c>
       <c r="C344">
-        <v>3710100.360213139</v>
+        <v>3710100.36021314</v>
       </c>
       <c r="D344">
-        <v>4972935.344031864</v>
+        <v>4972935.344031862</v>
       </c>
       <c r="E344">
-        <v>5243706.587109836</v>
+        <v>5243706.587109837</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6219,7 +6219,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>762622.3486252752</v>
+        <v>762622.3486252751</v>
       </c>
       <c r="C345">
         <v>1078794.260730894</v>
@@ -6236,7 +6236,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>804990.2568822348</v>
+        <v>804990.2568822347</v>
       </c>
       <c r="C346">
         <v>1062692.853854314</v>
@@ -6245,7 +6245,7 @@
         <v>1683541.488085712</v>
       </c>
       <c r="E346">
-        <v>1955285.714592357</v>
+        <v>1955285.714592356</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,7 +6253,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>804990.2568822348</v>
+        <v>804990.2568822347</v>
       </c>
       <c r="C347">
         <v>1062692.853854314</v>
@@ -6262,7 +6262,7 @@
         <v>1683541.488085712</v>
       </c>
       <c r="E347">
-        <v>1955285.714592357</v>
+        <v>1955285.714592356</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>751828.8662512827</v>
+        <v>751828.8662512826</v>
       </c>
       <c r="C348">
-        <v>968926.0244577754</v>
+        <v>968926.0244577753</v>
       </c>
       <c r="D348">
         <v>1410502.966066428</v>
       </c>
       <c r="E348">
-        <v>1705294.320744897</v>
+        <v>1705294.320744895</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,7 +6287,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>883398.9178452572</v>
+        <v>883398.9178452571</v>
       </c>
       <c r="C349">
         <v>1045420.184283389</v>
@@ -6296,7 +6296,7 @@
         <v>1334259.562495269</v>
       </c>
       <c r="E349">
-        <v>1404360.028848739</v>
+        <v>1404360.028848737</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,7 +6304,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>883398.9178452572</v>
+        <v>883398.9178452571</v>
       </c>
       <c r="C350">
         <v>1045420.184283389</v>
@@ -6313,7 +6313,7 @@
         <v>1334259.562495269</v>
       </c>
       <c r="E350">
-        <v>1404360.028848739</v>
+        <v>1404360.028848737</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>918961.2862263726</v>
+        <v>918961.2862263727</v>
       </c>
       <c r="C351">
         <v>1428969.721904981</v>
@@ -6330,7 +6330,7 @@
         <v>2607767.886247294</v>
       </c>
       <c r="E351">
-        <v>3318666.202913472</v>
+        <v>3318666.202913474</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,7 +6338,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>1099471.538877981</v>
+        <v>1099471.538877982</v>
       </c>
       <c r="C352">
         <v>1525150.37626397</v>
@@ -6347,7 +6347,7 @@
         <v>2471946.642171914</v>
       </c>
       <c r="E352">
-        <v>2593900.020668001</v>
+        <v>2593900.020668002</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6358,7 +6358,7 @@
         <v>4809822.649762095</v>
       </c>
       <c r="C353">
-        <v>6424808.979644514</v>
+        <v>6424808.979644515</v>
       </c>
       <c r="D353">
         <v>9265607.358261591</v>
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>6598118.550570397</v>
+        <v>6598118.550570394</v>
       </c>
       <c r="C354">
-        <v>7105001.28163111</v>
+        <v>7105001.281631107</v>
       </c>
       <c r="D354">
-        <v>8365057.408321771</v>
+        <v>8365057.408321769</v>
       </c>
       <c r="E354">
-        <v>8602860.102014529</v>
+        <v>8602860.10201453</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6392,13 +6392,13 @@
         <v>6389167.400430245</v>
       </c>
       <c r="C355">
-        <v>7042579.073841101</v>
+        <v>7042579.073841102</v>
       </c>
       <c r="D355">
         <v>8508322.141480595</v>
       </c>
       <c r="E355">
-        <v>8943632.062139897</v>
+        <v>8943632.062139895</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6412,7 +6412,7 @@
         <v>1547314.292161064</v>
       </c>
       <c r="D356">
-        <v>2146201.693398426</v>
+        <v>2146201.693398425</v>
       </c>
       <c r="E356">
         <v>2568329.699652463</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1406351.542153068</v>
+        <v>1406351.542153069</v>
       </c>
       <c r="C357">
         <v>1644021.43542113</v>
@@ -6432,7 +6432,7 @@
         <v>2037072.793734099</v>
       </c>
       <c r="E357">
-        <v>2083739.190284074</v>
+        <v>2083739.190284073</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6440,7 +6440,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1388549.623897966</v>
+        <v>1388549.623897967</v>
       </c>
       <c r="C358">
         <v>1644021.43542113</v>
@@ -6449,7 +6449,7 @@
         <v>2037072.793734099</v>
       </c>
       <c r="E358">
-        <v>2132198.241220913</v>
+        <v>2132198.241220912</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6460,10 +6460,10 @@
         <v>479810.4706366011</v>
       </c>
       <c r="C359">
-        <v>764188.9396892712</v>
+        <v>764188.9396892715</v>
       </c>
       <c r="D359">
-        <v>1392465.875621619</v>
+        <v>1392465.875621618</v>
       </c>
       <c r="E359">
         <v>1810650.563407565</v>
@@ -6477,7 +6477,7 @@
         <v>627444.4616017091</v>
       </c>
       <c r="C360">
-        <v>824125.3271158807</v>
+        <v>824125.327115881</v>
       </c>
       <c r="D360">
         <v>1278795.191897405</v>
@@ -6497,7 +6497,7 @@
         <v>18279766.419068</v>
       </c>
       <c r="D361">
-        <v>29542196.96482865</v>
+        <v>29542196.96482867</v>
       </c>
       <c r="E361">
         <v>41171425.35732118</v>
@@ -6511,13 +6511,13 @@
         <v>13475492.16468729</v>
       </c>
       <c r="C362">
-        <v>16775048.86786343</v>
+        <v>16775048.86786344</v>
       </c>
       <c r="D362">
-        <v>26694219.22636295</v>
+        <v>26694219.22636293</v>
       </c>
       <c r="E362">
-        <v>32316036.48372693</v>
+        <v>32316036.48372692</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6525,16 +6525,16 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>891438.635318745</v>
+        <v>891438.6353187449</v>
       </c>
       <c r="C363">
         <v>1200866.035020359</v>
       </c>
       <c r="D363">
-        <v>2270402.836826768</v>
+        <v>2270402.836826769</v>
       </c>
       <c r="E363">
-        <v>3430276.505920695</v>
+        <v>3430276.505920694</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6542,16 +6542,16 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>3069778.127457091</v>
+        <v>3069778.12745709</v>
       </c>
       <c r="C364">
-        <v>4069060.220268699</v>
+        <v>4069060.220268698</v>
       </c>
       <c r="D364">
-        <v>6593796.33492466</v>
+        <v>6593796.334924661</v>
       </c>
       <c r="E364">
-        <v>9055714.636440059</v>
+        <v>9055714.636440055</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>2938591.027993112</v>
       </c>
       <c r="C365">
-        <v>3929947.050344983</v>
+        <v>3929947.050344982</v>
       </c>
       <c r="D365">
-        <v>6651133.694358787</v>
+        <v>6651133.694358788</v>
       </c>
       <c r="E365">
-        <v>9621696.801217563</v>
+        <v>9621696.801217558</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,7 +6576,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>833677.6946785189</v>
+        <v>833677.6946785193</v>
       </c>
       <c r="C366">
         <v>1085972.891079079</v>
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>926308.5496427988</v>
+        <v>926308.5496427992</v>
       </c>
       <c r="C367">
-        <v>1112460.034763935</v>
+        <v>1112460.034763934</v>
       </c>
       <c r="D367">
         <v>1728559.769799327</v>
       </c>
       <c r="E367">
-        <v>1998806.930754952</v>
+        <v>1998806.930754951</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,16 +6610,16 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>960276.4734913229</v>
+        <v>960276.4734913228</v>
       </c>
       <c r="C368">
-        <v>1184289.595425816</v>
+        <v>1184289.595425815</v>
       </c>
       <c r="D368">
-        <v>1946769.364852769</v>
+        <v>1946769.36485277</v>
       </c>
       <c r="E368">
-        <v>2487442.506214655</v>
+        <v>2487442.506214654</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6647,13 +6647,13 @@
         <v>403337.0289281703</v>
       </c>
       <c r="C370">
-        <v>604711.2532266889</v>
+        <v>604711.2532266891</v>
       </c>
       <c r="D370">
         <v>1222389.145989648</v>
       </c>
       <c r="E370">
-        <v>1805509.922088745</v>
+        <v>1805509.922088744</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,7 +6664,7 @@
         <v>504171.2861602128</v>
       </c>
       <c r="C371">
-        <v>643724.8824671205</v>
+        <v>643724.8824671207</v>
       </c>
       <c r="D371">
         <v>1138086.446266224</v>
@@ -6681,13 +6681,13 @@
         <v>466358.4396981969</v>
       </c>
       <c r="C372">
-        <v>624218.0678469047</v>
+        <v>624218.0678469049</v>
       </c>
       <c r="D372">
         <v>1180237.796127936</v>
       </c>
       <c r="E372">
-        <v>1471156.232813052</v>
+        <v>1471156.232813051</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,10 +6695,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>5250901.859178974</v>
+        <v>5250901.859178973</v>
       </c>
       <c r="C373">
-        <v>7284012.449018562</v>
+        <v>7284012.449018565</v>
       </c>
       <c r="D373">
         <v>11051068.65877783</v>
@@ -6712,10 +6712,10 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>3684597.135625224</v>
+        <v>3684597.135625223</v>
       </c>
       <c r="C374">
-        <v>5426649.491959855</v>
+        <v>5426649.491959856</v>
       </c>
       <c r="D374">
         <v>8567327.010659989</v>
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>7255278.375317185</v>
+        <v>7255278.375317183</v>
       </c>
       <c r="C375">
-        <v>8361748.984842737</v>
+        <v>8361748.98484274</v>
       </c>
       <c r="D375">
-        <v>10090106.1667102</v>
+        <v>10090106.16671019</v>
       </c>
       <c r="E375">
         <v>10362005.11117486</v>
@@ -6749,13 +6749,13 @@
         <v>4778820.045610787</v>
       </c>
       <c r="C376">
-        <v>5479207.06651435</v>
+        <v>5479207.066514349</v>
       </c>
       <c r="D376">
-        <v>7096897.893347474</v>
+        <v>7096897.893347477</v>
       </c>
       <c r="E376">
-        <v>7892359.234447869</v>
+        <v>7892359.234447868</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6766,13 +6766,13 @@
         <v>4778820.045610787</v>
       </c>
       <c r="C377">
-        <v>5479207.06651435</v>
+        <v>5479207.066514349</v>
       </c>
       <c r="D377">
-        <v>7096897.893347474</v>
+        <v>7096897.893347477</v>
       </c>
       <c r="E377">
-        <v>7892359.234447869</v>
+        <v>7892359.234447868</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,13 +6780,13 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>3328606.651620774</v>
+        <v>3328606.651620773</v>
       </c>
       <c r="C378">
-        <v>4237153.244104533</v>
+        <v>4237153.244104532</v>
       </c>
       <c r="D378">
-        <v>5812567.610694891</v>
+        <v>5812567.610694892</v>
       </c>
       <c r="E378">
         <v>7485454.762836859</v>
@@ -6797,13 +6797,13 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>3224587.693757625</v>
+        <v>3224587.693757624</v>
       </c>
       <c r="C379">
-        <v>4366862.016883243</v>
+        <v>4366862.016883242</v>
       </c>
       <c r="D379">
-        <v>5870693.286801839</v>
+        <v>5870693.286801841</v>
       </c>
       <c r="E379">
         <v>7411341.349343425</v>
@@ -6814,10 +6814,10 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>4472815.188115415</v>
+        <v>4472815.188115414</v>
       </c>
       <c r="C380">
-        <v>4583043.30484776</v>
+        <v>4583043.304847759</v>
       </c>
       <c r="D380">
         <v>5289436.525732351</v>
@@ -6831,13 +6831,13 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>3328606.651620774</v>
+        <v>3328606.651620773</v>
       </c>
       <c r="C381">
-        <v>4237153.244104533</v>
+        <v>4237153.244104532</v>
       </c>
       <c r="D381">
-        <v>5812567.610694891</v>
+        <v>5812567.610694892</v>
       </c>
       <c r="E381">
         <v>7485454.762836859</v>
@@ -6851,10 +6851,10 @@
         <v>2224549.727039301</v>
       </c>
       <c r="C382">
-        <v>2470135.415723786</v>
+        <v>2470135.415723787</v>
       </c>
       <c r="D382">
-        <v>2908813.204061892</v>
+        <v>2908813.204061891</v>
       </c>
       <c r="E382">
         <v>3071643.390548381</v>
@@ -6868,10 +6868,10 @@
         <v>5555892.970667209</v>
       </c>
       <c r="C383">
-        <v>7640487.980989474</v>
+        <v>7640487.980989479</v>
       </c>
       <c r="D383">
-        <v>11325667.41781011</v>
+        <v>11325667.41781012</v>
       </c>
       <c r="E383">
         <v>15261823.77155999</v>
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>8903269.24948906</v>
+        <v>8903269.249489062</v>
       </c>
       <c r="C384">
         <v>9621619.280150944</v>
@@ -6891,7 +6891,7 @@
         <v>12119047.077855</v>
       </c>
       <c r="E384">
-        <v>13360135.12907219</v>
+        <v>13360135.12907218</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6905,7 +6905,7 @@
         <v>1867649.781243417</v>
       </c>
       <c r="D385">
-        <v>2554820.79928118</v>
+        <v>2554820.799281181</v>
       </c>
       <c r="E385">
         <v>3303721.744866451</v>
@@ -6922,10 +6922,10 @@
         <v>2244908.62251453</v>
       </c>
       <c r="D386">
-        <v>3485906.683357425</v>
+        <v>3485906.683357427</v>
       </c>
       <c r="E386">
-        <v>4546820.190055963</v>
+        <v>4546820.190055965</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6939,10 +6939,10 @@
         <v>2329092.695858825</v>
       </c>
       <c r="D387">
-        <v>3392949.171801227</v>
+        <v>3392949.171801229</v>
       </c>
       <c r="E387">
-        <v>3953756.687005185</v>
+        <v>3953756.687005187</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,13 +6950,13 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>2302284.89677978</v>
+        <v>2302284.896779781</v>
       </c>
       <c r="C388">
         <v>3278087.961729859</v>
       </c>
       <c r="D388">
-        <v>7320400.624522303</v>
+        <v>7320400.624522304</v>
       </c>
       <c r="E388">
         <v>11460725.57906932</v>
@@ -6967,16 +6967,16 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>212358.5215624083</v>
+        <v>212358.5215624084</v>
       </c>
       <c r="C389">
         <v>291556.436464904</v>
       </c>
       <c r="D389">
-        <v>707896.4243986114</v>
+        <v>707896.4243986116</v>
       </c>
       <c r="E389">
-        <v>997899.2727962233</v>
+        <v>997899.2727962242</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6984,16 +6984,16 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>212358.5215624083</v>
+        <v>212358.5215624084</v>
       </c>
       <c r="C390">
         <v>300667.5751044322</v>
       </c>
       <c r="D390">
-        <v>707896.4243986114</v>
+        <v>707896.4243986116</v>
       </c>
       <c r="E390">
-        <v>952540.2149418495</v>
+        <v>952540.2149418504</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,13 +7001,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>2302284.89677978</v>
+        <v>2302284.896779781</v>
       </c>
       <c r="C391">
         <v>3278087.961729859</v>
       </c>
       <c r="D391">
-        <v>7320400.624522303</v>
+        <v>7320400.624522304</v>
       </c>
       <c r="E391">
         <v>11460725.57906932</v>
@@ -7018,16 +7018,16 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>240300.4322943041</v>
+        <v>240300.4322943042</v>
       </c>
       <c r="C392">
         <v>309778.7137439605</v>
       </c>
       <c r="D392">
-        <v>682614.4092415181</v>
+        <v>682614.4092415184</v>
       </c>
       <c r="E392">
-        <v>816463.0413787281</v>
+        <v>816463.0413787289</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,10 +7035,10 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>488457.0046123629</v>
+        <v>488457.004612363</v>
       </c>
       <c r="C393">
-        <v>650355.6997427942</v>
+        <v>650355.6997427943</v>
       </c>
       <c r="D393">
         <v>1418999.632684212</v>
@@ -7052,13 +7052,13 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>464513.0337980314</v>
+        <v>464513.0337980315</v>
       </c>
       <c r="C394">
         <v>635404.9940015805</v>
       </c>
       <c r="D394">
-        <v>1438175.303396161</v>
+        <v>1438175.30339616</v>
       </c>
       <c r="E394">
         <v>2106899.708497811</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>354134.7699629245</v>
+        <v>354134.7699629247</v>
       </c>
       <c r="C395">
-        <v>545702.3731537206</v>
+        <v>545702.3731537205</v>
       </c>
       <c r="D395">
         <v>1328148.073923048</v>
       </c>
       <c r="E395">
-        <v>2226168.3081206</v>
+        <v>2226168.308120601</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>445351.3016200415</v>
+        <v>445351.3016200417</v>
       </c>
       <c r="C396">
-        <v>595311.6798040589</v>
+        <v>595311.6798040587</v>
       </c>
       <c r="D396">
         <v>1246415.884758553</v>
       </c>
       <c r="E396">
-        <v>1704410.110904834</v>
+        <v>1704410.110904835</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>171359.312493699</v>
+        <v>171359.3124936991</v>
       </c>
       <c r="C397">
-        <v>218859.2024091576</v>
+        <v>218859.2024091575</v>
       </c>
       <c r="D397">
         <v>476096.1849069651</v>
       </c>
       <c r="E397">
-        <v>739416.5296905412</v>
+        <v>739416.5296905406</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>171359.312493699</v>
+        <v>171359.3124936991</v>
       </c>
       <c r="C398">
-        <v>218859.2024091576</v>
+        <v>218859.2024091575</v>
       </c>
       <c r="D398">
         <v>476096.1849069651</v>
       </c>
       <c r="E398">
-        <v>739416.5296905412</v>
+        <v>739416.5296905406</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7140,10 +7140,10 @@
         <v>1375220.907583144</v>
       </c>
       <c r="C399">
-        <v>2245705.750408614</v>
+        <v>2245705.750408615</v>
       </c>
       <c r="D399">
-        <v>6533025.184178875</v>
+        <v>6533025.18417887</v>
       </c>
       <c r="E399">
         <v>11357798.2068569</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>1401471.397199099</v>
+        <v>1401471.397199098</v>
       </c>
       <c r="C400">
-        <v>1984152.219165065</v>
+        <v>1984152.219165066</v>
       </c>
       <c r="D400">
-        <v>5261735.788301198</v>
+        <v>5261735.788301196</v>
       </c>
       <c r="E400">
-        <v>7716999.890582678</v>
+        <v>7716999.890582673</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>1546454.639266648</v>
+        <v>1546454.639266649</v>
       </c>
       <c r="C401">
         <v>2333772.642581501</v>
       </c>
       <c r="D401">
-        <v>6320569.080628342</v>
+        <v>6320569.080628338</v>
       </c>
       <c r="E401">
         <v>10047283.02914264</v>
@@ -7191,13 +7191,13 @@
         <v>129734.4059709502</v>
       </c>
       <c r="C402">
-        <v>178018.5113000588</v>
+        <v>178018.5113000587</v>
       </c>
       <c r="D402">
-        <v>503029.1051008691</v>
+        <v>503029.1051008693</v>
       </c>
       <c r="E402">
-        <v>841471.0379728709</v>
+        <v>841471.037972871</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7208,13 +7208,13 @@
         <v>1333106.938799143</v>
       </c>
       <c r="C403">
-        <v>1959350.316425501</v>
+        <v>1959350.316425502</v>
       </c>
       <c r="D403">
-        <v>5365928.57618835</v>
+        <v>5365928.576188348</v>
       </c>
       <c r="E403">
-        <v>8247543.633060237</v>
+        <v>8247543.633060232</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>426759.5480956581</v>
       </c>
       <c r="D404">
-        <v>1303463.276814634</v>
+        <v>1303463.276814635</v>
       </c>
       <c r="E404">
         <v>2133671.393373201</v>
@@ -7245,7 +7245,7 @@
         <v>440751.6644266633</v>
       </c>
       <c r="D405">
-        <v>1256911.016928397</v>
+        <v>1256911.016928398</v>
       </c>
       <c r="E405">
         <v>1915949.822620834</v>
@@ -7262,7 +7262,7 @@
         <v>426759.5480956581</v>
       </c>
       <c r="D406">
-        <v>1303463.276814634</v>
+        <v>1303463.276814635</v>
       </c>
       <c r="E406">
         <v>2133671.393373201</v>
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>223280.5520792312</v>
+        <v>223280.5520792311</v>
       </c>
       <c r="C407">
-        <v>379878.3525153181</v>
+        <v>379878.352515318</v>
       </c>
       <c r="D407">
         <v>1334230.829514612</v>
       </c>
       <c r="E407">
-        <v>2561050.643809588</v>
+        <v>2561050.643809587</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,10 +7290,10 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>290619.1312777294</v>
+        <v>290619.1312777293</v>
       </c>
       <c r="C408">
-        <v>416640.7737264779</v>
+        <v>416640.7737264778</v>
       </c>
       <c r="D408">
         <v>1248151.42115883</v>
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>241001.2308156781</v>
+        <v>241001.230815678</v>
       </c>
       <c r="C409">
-        <v>386005.422717178</v>
+        <v>386005.4227171779</v>
       </c>
       <c r="D409">
         <v>1312710.977425666</v>
       </c>
       <c r="E409">
-        <v>2439095.851247227</v>
+        <v>2439095.851247226</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>2034450.176678516</v>
+        <v>2034450.176678515</v>
       </c>
       <c r="C410">
-        <v>3404716.264877075</v>
+        <v>3404716.264877077</v>
       </c>
       <c r="D410">
-        <v>7533057.483481354</v>
+        <v>7533057.483481361</v>
       </c>
       <c r="E410">
-        <v>11899883.41762318</v>
+        <v>11899883.41762319</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,16 +7341,16 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>377203.6021269739</v>
+        <v>377203.602126974</v>
       </c>
       <c r="C411">
-        <v>800070.0005366025</v>
+        <v>800070.0005366022</v>
       </c>
       <c r="D411">
-        <v>2467718.00854469</v>
+        <v>2467718.008544689</v>
       </c>
       <c r="E411">
-        <v>5164376.448637567</v>
+        <v>5164376.448637566</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>646634.7465033839</v>
+        <v>646634.746503384</v>
       </c>
       <c r="C412">
-        <v>981217.9251863993</v>
+        <v>981217.9251863989</v>
       </c>
       <c r="D412">
-        <v>2209896.724069871</v>
+        <v>2209896.72406987</v>
       </c>
       <c r="E412">
-        <v>3359955.7617642</v>
+        <v>3359955.761764199</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>1464030.372546367</v>
+        <v>1464030.372546368</v>
       </c>
       <c r="C413">
         <v>2255411.646414727</v>
       </c>
       <c r="D413">
-        <v>4893689.58075482</v>
+        <v>4893689.580754822</v>
       </c>
       <c r="E413">
-        <v>6715360.580370623</v>
+        <v>6715360.580370617</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>2034450.176678516</v>
+        <v>2034450.176678515</v>
       </c>
       <c r="C414">
-        <v>3404716.264877075</v>
+        <v>3404716.264877077</v>
       </c>
       <c r="D414">
-        <v>7533057.483481354</v>
+        <v>7533057.483481361</v>
       </c>
       <c r="E414">
-        <v>11899883.41762318</v>
+        <v>11899883.41762319</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,10 +7409,10 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>808697.7297000898</v>
+        <v>808697.72970009</v>
       </c>
       <c r="C415">
-        <v>1225044.855546765</v>
+        <v>1225044.855546764</v>
       </c>
       <c r="D415">
         <v>2575133.959469709</v>
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>913723.4088819196</v>
+        <v>913723.4088819199</v>
       </c>
       <c r="C416">
         <v>1311315.620021889</v>
       </c>
       <c r="D416">
-        <v>2494661.02323628</v>
+        <v>2494661.023236281</v>
       </c>
       <c r="E416">
-        <v>3122646.933559881</v>
+        <v>3122646.93355988</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,10 +7446,10 @@
         <v>167130.456254998</v>
       </c>
       <c r="C417">
-        <v>242819.7843659541</v>
+        <v>242819.7843659542</v>
       </c>
       <c r="D417">
-        <v>616835.5157995243</v>
+        <v>616835.5157995241</v>
       </c>
       <c r="E417">
         <v>1047332.260200186</v>
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>200556.5475059977</v>
+        <v>200556.5475059976</v>
       </c>
       <c r="C418">
-        <v>264894.3102174044</v>
+        <v>264894.3102174046</v>
       </c>
       <c r="D418">
-        <v>585993.740009548</v>
+        <v>585993.7400095479</v>
       </c>
       <c r="E418">
-        <v>771718.5075159266</v>
+        <v>771718.5075159264</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,16 +7477,16 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C419">
         <v>750304.5946782082</v>
       </c>
       <c r="D419">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E419">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7494,16 +7494,16 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C420">
         <v>750304.5946782082</v>
       </c>
       <c r="D420">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E420">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>513985.8227855184</v>
+        <v>513985.8227855181</v>
       </c>
       <c r="C421">
-        <v>732112.9053276686</v>
+        <v>732112.9053276691</v>
       </c>
       <c r="D421">
         <v>1406226.578938466</v>
       </c>
       <c r="E421">
-        <v>2262507.018323547</v>
+        <v>2262507.018323545</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>513985.8227855184</v>
+        <v>513985.8227855181</v>
       </c>
       <c r="C422">
-        <v>732112.9053276686</v>
+        <v>732112.9053276691</v>
       </c>
       <c r="D422">
         <v>1406226.578938466</v>
       </c>
       <c r="E422">
-        <v>2262507.018323547</v>
+        <v>2262507.018323545</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,16 +7545,16 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C423">
         <v>750304.5946782082</v>
       </c>
       <c r="D423">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E423">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,16 +7562,16 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C424">
         <v>750304.5946782082</v>
       </c>
       <c r="D424">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E424">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>513985.8227855184</v>
+        <v>513985.8227855181</v>
       </c>
       <c r="C425">
-        <v>732112.9053276686</v>
+        <v>732112.9053276691</v>
       </c>
       <c r="D425">
         <v>1406226.578938466</v>
       </c>
       <c r="E425">
-        <v>2262507.018323547</v>
+        <v>2262507.018323545</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,16 +7596,16 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C426">
         <v>750304.5946782082</v>
       </c>
       <c r="D426">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E426">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7613,16 +7613,16 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C427">
         <v>750304.5946782082</v>
       </c>
       <c r="D427">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E427">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7630,16 +7630,16 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C428">
         <v>750304.5946782082</v>
       </c>
       <c r="D428">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E428">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7647,16 +7647,16 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C429">
         <v>750304.5946782082</v>
       </c>
       <c r="D429">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E429">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,16 +7664,16 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C430">
         <v>750304.5946782082</v>
       </c>
       <c r="D430">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E430">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>513985.8227855184</v>
+        <v>513985.8227855181</v>
       </c>
       <c r="C431">
-        <v>732112.9053276686</v>
+        <v>732112.9053276691</v>
       </c>
       <c r="D431">
         <v>1406226.578938466</v>
       </c>
       <c r="E431">
-        <v>2262507.018323547</v>
+        <v>2262507.018323545</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7698,16 +7698,16 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C432">
         <v>750304.5946782082</v>
       </c>
       <c r="D432">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E432">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7715,16 +7715,16 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C433">
         <v>750304.5946782082</v>
       </c>
       <c r="D433">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E433">
-        <v>2329245.595018012</v>
+        <v>2329245.595018013</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,16 +7732,16 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>609136.5795422277</v>
+        <v>609136.5795422278</v>
       </c>
       <c r="C434">
-        <v>869489.9462267079</v>
+        <v>869489.946226708</v>
       </c>
       <c r="D434">
         <v>1861898.076740356</v>
       </c>
       <c r="E434">
-        <v>2983812.807771444</v>
+        <v>2983812.807771442</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7749,13 +7749,13 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>674767.7151141202</v>
+        <v>674767.7151141199</v>
       </c>
       <c r="C435">
         <v>786033.38490098</v>
       </c>
       <c r="D435">
-        <v>1375119.618974183</v>
+        <v>1375119.618974184</v>
       </c>
       <c r="E435">
         <v>1688703.056388059</v>
@@ -7766,13 +7766,13 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>218147.5361429974</v>
+        <v>218147.5361429973</v>
       </c>
       <c r="C436">
-        <v>315019.7217786991</v>
+        <v>315019.721778699</v>
       </c>
       <c r="D436">
-        <v>679334.5814951018</v>
+        <v>679334.5814951025</v>
       </c>
       <c r="E436">
         <v>1006587.549484466</v>
@@ -7970,13 +7970,13 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>424735.2095355931</v>
+        <v>424735.2095355929</v>
       </c>
       <c r="C448">
-        <v>464216.6846876256</v>
+        <v>464216.6846876254</v>
       </c>
       <c r="D448">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E448">
         <v>1112887.015382066</v>
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>424735.2095355931</v>
+        <v>424735.2095355929</v>
       </c>
       <c r="C449">
-        <v>464216.6846876256</v>
+        <v>464216.6846876254</v>
       </c>
       <c r="D449">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E449">
         <v>1112887.015382066</v>
@@ -8004,13 +8004,13 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>424735.2095355931</v>
+        <v>424735.2095355929</v>
       </c>
       <c r="C450">
-        <v>464216.6846876256</v>
+        <v>464216.6846876254</v>
       </c>
       <c r="D450">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E450">
         <v>1112887.015382066</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>424735.2095355931</v>
+        <v>424735.2095355929</v>
       </c>
       <c r="C451">
-        <v>464216.6846876256</v>
+        <v>464216.6846876254</v>
       </c>
       <c r="D451">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E451">
         <v>1112887.015382066</v>
@@ -8038,13 +8038,13 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>424735.2095355931</v>
+        <v>424735.2095355929</v>
       </c>
       <c r="C452">
-        <v>464216.6846876256</v>
+        <v>464216.6846876254</v>
       </c>
       <c r="D452">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E452">
         <v>1112887.015382066</v>
@@ -8055,13 +8055,13 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>254841.1257213558</v>
+        <v>254841.1257213557</v>
       </c>
       <c r="C453">
-        <v>412637.0530556671</v>
+        <v>412637.053055667</v>
       </c>
       <c r="D453">
-        <v>827715.8552097188</v>
+        <v>827715.8552097192</v>
       </c>
       <c r="E453">
         <v>1571134.609951152</v>
@@ -8072,10 +8072,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C454">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D454">
         <v>1488133.279549983</v>
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C455">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D455">
         <v>1488133.279549983</v>
@@ -8106,10 +8106,10 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C456">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D456">
         <v>1488133.279549983</v>
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C457">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D457">
         <v>1488133.279549983</v>
@@ -8140,10 +8140,10 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C458">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D458">
         <v>1488133.279549983</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>747323.1509885223</v>
+        <v>747323.1509885226</v>
       </c>
       <c r="C459">
-        <v>885373.8000515957</v>
+        <v>885373.8000515959</v>
       </c>
       <c r="D459">
         <v>1407693.642817551</v>
@@ -8174,10 +8174,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C460">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D460">
         <v>1488133.279549983</v>
@@ -8191,10 +8191,10 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>649846.218250889</v>
+        <v>649846.2182508891</v>
       </c>
       <c r="C461">
-        <v>820590.3512673326</v>
+        <v>820590.3512673328</v>
       </c>
       <c r="D461">
         <v>1488133.279549983</v>
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>747323.1509885223</v>
+        <v>747323.1509885226</v>
       </c>
       <c r="C462">
-        <v>885373.8000515957</v>
+        <v>885373.8000515959</v>
       </c>
       <c r="D462">
         <v>1407693.642817551</v>
@@ -8225,13 +8225,13 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C463">
         <v>732440.1995668224</v>
       </c>
       <c r="D463">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E463">
         <v>2387476.734893463</v>
@@ -8242,13 +8242,13 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C464">
         <v>732440.1995668224</v>
       </c>
       <c r="D464">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E464">
         <v>2387476.734893463</v>
@@ -8259,16 +8259,16 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>787191.8874084172</v>
+        <v>787191.8874084174</v>
       </c>
       <c r="C465">
-        <v>936373.7882441469</v>
+        <v>936373.7882441471</v>
       </c>
       <c r="D465">
         <v>1716437.289495016</v>
       </c>
       <c r="E465">
-        <v>2261922.612342868</v>
+        <v>2261922.612342867</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8276,16 +8276,16 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>609136.5795422277</v>
+        <v>609136.5795422278</v>
       </c>
       <c r="C466">
-        <v>842736.4094197322</v>
+        <v>842736.4094197323</v>
       </c>
       <c r="D466">
         <v>1832805.919291288</v>
       </c>
       <c r="E466">
-        <v>3080064.833828587</v>
+        <v>3080064.833828585</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8293,13 +8293,13 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>521990.119239225</v>
+        <v>521990.1192392249</v>
       </c>
       <c r="C467">
         <v>732440.1995668224</v>
       </c>
       <c r="D467">
-        <v>1447494.335762298</v>
+        <v>1447494.335762299</v>
       </c>
       <c r="E467">
         <v>2387476.734893463</v>
@@ -8310,13 +8310,13 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>254841.1257213558</v>
+        <v>254841.1257213557</v>
       </c>
       <c r="C468">
-        <v>412637.0530556671</v>
+        <v>412637.053055667</v>
       </c>
       <c r="D468">
-        <v>827715.8552097188</v>
+        <v>827715.8552097192</v>
       </c>
       <c r="E468">
         <v>1571134.609951152</v>
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>467208.7304891523</v>
+        <v>467208.7304891521</v>
       </c>
       <c r="C469">
-        <v>490006.5005036047</v>
+        <v>490006.5005036046</v>
       </c>
       <c r="D469">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E469">
-        <v>981959.1312194702</v>
+        <v>981959.1312194703</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>467208.7304891523</v>
+        <v>467208.7304891521</v>
       </c>
       <c r="C470">
-        <v>490006.5005036047</v>
+        <v>490006.5005036046</v>
       </c>
       <c r="D470">
-        <v>740587.870450801</v>
+        <v>740587.8704508013</v>
       </c>
       <c r="E470">
-        <v>981959.1312194702</v>
+        <v>981959.1312194703</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,13 +8361,13 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>674767.7151141202</v>
+        <v>674767.7151141199</v>
       </c>
       <c r="C471">
         <v>803897.780012366</v>
       </c>
       <c r="D471">
-        <v>1375119.618974183</v>
+        <v>1375119.618974184</v>
       </c>
       <c r="E471">
         <v>1688703.056388059</v>
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>779815.4619010668</v>
+        <v>779815.4619010669</v>
       </c>
       <c r="C472">
-        <v>928562.7659077711</v>
+        <v>928562.7659077713</v>
       </c>
       <c r="D472">
         <v>1407693.642817551</v>
@@ -8395,16 +8395,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>787191.8874084172</v>
+        <v>787191.8874084174</v>
       </c>
       <c r="C473">
-        <v>949750.5566476347</v>
+        <v>949750.5566476348</v>
       </c>
       <c r="D473">
         <v>1716437.289495016</v>
       </c>
       <c r="E473">
-        <v>2213796.599314297</v>
+        <v>2213796.599314296</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8412,16 +8412,16 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>787191.8874084172</v>
+        <v>787191.8874084174</v>
       </c>
       <c r="C474">
-        <v>949750.5566476347</v>
+        <v>949750.5566476348</v>
       </c>
       <c r="D474">
         <v>1716437.289495016</v>
       </c>
       <c r="E474">
-        <v>2213796.599314297</v>
+        <v>2213796.599314296</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>232690.7052191972</v>
+        <v>232690.7052191971</v>
       </c>
       <c r="C475">
-        <v>326687.1188816139</v>
+        <v>326687.1188816137</v>
       </c>
       <c r="D475">
-        <v>679334.5814951018</v>
+        <v>679334.5814951025</v>
       </c>
       <c r="E475">
-        <v>910722.0685811833</v>
+        <v>910722.0685811839</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,13 +8449,13 @@
         <v>390194.7627905556</v>
       </c>
       <c r="C476">
-        <v>497427.0682672561</v>
+        <v>497427.0682672565</v>
       </c>
       <c r="D476">
-        <v>932413.0506363317</v>
+        <v>932413.0506363312</v>
       </c>
       <c r="E476">
-        <v>1182324.609920791</v>
+        <v>1182324.60992079</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,13 +8463,13 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>382065.7052324191</v>
+        <v>382065.705232419</v>
       </c>
       <c r="C477">
-        <v>485294.7007485426</v>
+        <v>485294.7007485429</v>
       </c>
       <c r="D477">
-        <v>960667.9915647053</v>
+        <v>960667.9915647048</v>
       </c>
       <c r="E477">
         <v>1229617.594317622</v>
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>1456306.970522956</v>
+        <v>1456306.970522957</v>
       </c>
       <c r="C478">
         <v>2252318.843670072</v>
       </c>
       <c r="D478">
-        <v>5194674.42161572</v>
+        <v>5194674.421615718</v>
       </c>
       <c r="E478">
-        <v>8925943.386271557</v>
+        <v>8925943.386271561</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,10 +8497,10 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>5567625.81877587</v>
+        <v>5567625.818775873</v>
       </c>
       <c r="C479">
-        <v>7249240.179175527</v>
+        <v>7249240.179175523</v>
       </c>
       <c r="D479">
         <v>14776590.86530416</v>
@@ -8514,7 +8514,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>1477130.995542238</v>
+        <v>1477130.995542239</v>
       </c>
       <c r="C480">
         <v>2311127.173544125</v>
@@ -8523,7 +8523,7 @@
         <v>5358609.902083908</v>
       </c>
       <c r="E480">
-        <v>9209632.696296655</v>
+        <v>9209632.696296651</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>1456306.970522956</v>
+        <v>1456306.970522957</v>
       </c>
       <c r="C481">
         <v>2252318.843670072</v>
       </c>
       <c r="D481">
-        <v>5194674.42161572</v>
+        <v>5194674.421615718</v>
       </c>
       <c r="E481">
-        <v>8925943.386271557</v>
+        <v>8925943.386271561</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>1456306.970522956</v>
+        <v>1456306.970522957</v>
       </c>
       <c r="C482">
         <v>2252318.843670072</v>
       </c>
       <c r="D482">
-        <v>5194674.42161572</v>
+        <v>5194674.421615718</v>
       </c>
       <c r="E482">
-        <v>8925943.386271557</v>
+        <v>8925943.386271561</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>1456306.970522956</v>
+        <v>1456306.970522957</v>
       </c>
       <c r="C483">
         <v>2252318.843670072</v>
       </c>
       <c r="D483">
-        <v>5194674.42161572</v>
+        <v>5194674.421615718</v>
       </c>
       <c r="E483">
-        <v>8925943.386271557</v>
+        <v>8925943.386271561</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>1456306.970522956</v>
+        <v>1456306.970522957</v>
       </c>
       <c r="C484">
         <v>2252318.843670072</v>
       </c>
       <c r="D484">
-        <v>5194674.42161572</v>
+        <v>5194674.421615718</v>
       </c>
       <c r="E484">
-        <v>8925943.386271557</v>
+        <v>8925943.386271561</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,7 +8599,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>1477130.995542238</v>
+        <v>1477130.995542239</v>
       </c>
       <c r="C485">
         <v>2311127.173544125</v>
@@ -8608,7 +8608,7 @@
         <v>5358609.902083908</v>
       </c>
       <c r="E485">
-        <v>9209632.696296655</v>
+        <v>9209632.696296651</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>2605895.379154774</v>
+        <v>2605895.379154776</v>
       </c>
       <c r="C486">
-        <v>4134697.034808844</v>
+        <v>4134697.034808846</v>
       </c>
       <c r="D486">
-        <v>9664453.640321936</v>
+        <v>9664453.640321938</v>
       </c>
       <c r="E486">
         <v>16642804.33786662</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>804541.2987478654</v>
+        <v>804541.2987478651</v>
       </c>
       <c r="C487">
         <v>1020151.835832849</v>
       </c>
       <c r="D487">
-        <v>1843613.90499255</v>
+        <v>1843613.904992551</v>
       </c>
       <c r="E487">
-        <v>2266872.919823306</v>
+        <v>2266872.919823304</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8653,10 +8653,10 @@
         <v>218353.8125108333</v>
       </c>
       <c r="C488">
-        <v>298747.7291085533</v>
+        <v>298747.7291085532</v>
       </c>
       <c r="D488">
-        <v>710301.0649549267</v>
+        <v>710301.0649549273</v>
       </c>
       <c r="E488">
         <v>1145206.348363032</v>
@@ -8670,13 +8670,13 @@
         <v>262024.575013</v>
       </c>
       <c r="C489">
-        <v>337714.824209669</v>
+        <v>337714.8242096688</v>
       </c>
       <c r="D489">
-        <v>651109.3095420162</v>
+        <v>651109.3095420167</v>
       </c>
       <c r="E489">
-        <v>946040.0269085919</v>
+        <v>946040.0269085914</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,16 +8684,16 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>2690162.738076117</v>
+        <v>2690162.738076118</v>
       </c>
       <c r="C490">
-        <v>3843563.943784508</v>
+        <v>3843563.943784507</v>
       </c>
       <c r="D490">
         <v>7485358.680450602</v>
       </c>
       <c r="E490">
-        <v>11004962.12992692</v>
+        <v>11004962.12992691</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,7 +8701,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>3089691.857592372</v>
+        <v>3089691.857592373</v>
       </c>
       <c r="C491">
         <v>3983693.879234985</v>
@@ -8710,7 +8710,7 @@
         <v>7154514.097889249</v>
       </c>
       <c r="E491">
-        <v>9555206.639756903</v>
+        <v>9555206.639756901</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8718,16 +8718,16 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>2690162.738076117</v>
+        <v>2690162.738076118</v>
       </c>
       <c r="C492">
-        <v>3843563.943784508</v>
+        <v>3843563.943784507</v>
       </c>
       <c r="D492">
         <v>7485358.680450602</v>
       </c>
       <c r="E492">
-        <v>11004962.12992692</v>
+        <v>11004962.12992691</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8735,16 +8735,16 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>2690162.738076117</v>
+        <v>2690162.738076118</v>
       </c>
       <c r="C493">
-        <v>3843563.943784508</v>
+        <v>3843563.943784507</v>
       </c>
       <c r="D493">
         <v>7485358.680450602</v>
       </c>
       <c r="E493">
-        <v>11004962.12992692</v>
+        <v>11004962.12992691</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8752,16 +8752,16 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>2690162.738076117</v>
+        <v>2690162.738076118</v>
       </c>
       <c r="C494">
-        <v>3843563.943784508</v>
+        <v>3843563.943784507</v>
       </c>
       <c r="D494">
         <v>7485358.680450602</v>
       </c>
       <c r="E494">
-        <v>11004962.12992692</v>
+        <v>11004962.12992691</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,10 +8772,10 @@
         <v>455896.8510348428</v>
       </c>
       <c r="C495">
-        <v>671688.0248986345</v>
+        <v>671688.0248986344</v>
       </c>
       <c r="D495">
-        <v>1354178.153667969</v>
+        <v>1354178.15366797</v>
       </c>
       <c r="E495">
         <v>1864986.579755214</v>
@@ -8786,13 +8786,13 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>3395245.809653076</v>
+        <v>3395245.809653075</v>
       </c>
       <c r="C496">
-        <v>4679710.545431415</v>
+        <v>4679710.545431414</v>
       </c>
       <c r="D496">
-        <v>8682683.628773257</v>
+        <v>8682683.628773259</v>
       </c>
       <c r="E496">
         <v>11810907.67706273</v>
@@ -8806,10 +8806,10 @@
         <v>455896.8510348428</v>
       </c>
       <c r="C497">
-        <v>671688.0248986345</v>
+        <v>671688.0248986344</v>
       </c>
       <c r="D497">
-        <v>1354178.153667969</v>
+        <v>1354178.15366797</v>
       </c>
       <c r="E497">
         <v>1864986.579755214</v>
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>1032465.162892801</v>
+        <v>1032465.1628928</v>
       </c>
       <c r="C498">
         <v>1387651.593361758</v>
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>1216328.822038094</v>
+        <v>1216328.822038093</v>
       </c>
       <c r="C499">
         <v>1469278.157677156</v>
@@ -8863,7 +8863,7 @@
         <v>2366254.561017381</v>
       </c>
       <c r="E500">
-        <v>2708106.773761046</v>
+        <v>2708106.773761047</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>368887.9787018832</v>
+        <v>368887.9787018835</v>
       </c>
       <c r="C501">
         <v>533853.5992580699</v>
